--- a/turno_backend/turnoRaiz.xlsx
+++ b/turno_backend/turnoRaiz.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PARTICULAR\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PARTICULAR\Documents\turno_backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46811DE-89C5-46DB-8E3B-9881DCF6A18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E632147-38C7-4124-80CA-05A24739D016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AF236E64-DAFC-40B2-876F-57B9B995E8FC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="571">
   <si>
     <t>MES</t>
   </si>
@@ -625,6 +625,1119 @@
   </si>
   <si>
     <t>31/12, mié.</t>
+  </si>
+  <si>
+    <t>01/01, jue.</t>
+  </si>
+  <si>
+    <t>02/01, vie.</t>
+  </si>
+  <si>
+    <t>03/01, sáb.</t>
+  </si>
+  <si>
+    <t>04/01, dom.</t>
+  </si>
+  <si>
+    <t>05/01, lun.</t>
+  </si>
+  <si>
+    <t>06/01, mar.</t>
+  </si>
+  <si>
+    <t>07/01, mié.</t>
+  </si>
+  <si>
+    <t>08/01, jue.</t>
+  </si>
+  <si>
+    <t>09/01, vie.</t>
+  </si>
+  <si>
+    <t>10/01, sáb.</t>
+  </si>
+  <si>
+    <t>11/01, dom.</t>
+  </si>
+  <si>
+    <t>12/01, lun.</t>
+  </si>
+  <si>
+    <t>13/01, mar.</t>
+  </si>
+  <si>
+    <t>14/01, mié.</t>
+  </si>
+  <si>
+    <t>15/01, jue.</t>
+  </si>
+  <si>
+    <t>16/01, vie.</t>
+  </si>
+  <si>
+    <t>17/01, sáb.</t>
+  </si>
+  <si>
+    <t>18/01, dom.</t>
+  </si>
+  <si>
+    <t>19/01, lun.</t>
+  </si>
+  <si>
+    <t>20/01, mar.</t>
+  </si>
+  <si>
+    <t>21/01, mié.</t>
+  </si>
+  <si>
+    <t>22/01, jue.</t>
+  </si>
+  <si>
+    <t>23/01, vie.</t>
+  </si>
+  <si>
+    <t>24/01, sáb.</t>
+  </si>
+  <si>
+    <t>25/01, dom.</t>
+  </si>
+  <si>
+    <t>26/01, lun.</t>
+  </si>
+  <si>
+    <t>27/01, mar.</t>
+  </si>
+  <si>
+    <t>28/01, mié.</t>
+  </si>
+  <si>
+    <t>29/01, jue.</t>
+  </si>
+  <si>
+    <t>30/01, vie.</t>
+  </si>
+  <si>
+    <t>31/01, sáb.</t>
+  </si>
+  <si>
+    <t>01/02, dom.</t>
+  </si>
+  <si>
+    <t>02/02, lun.</t>
+  </si>
+  <si>
+    <t>03/02, mar.</t>
+  </si>
+  <si>
+    <t>04/02, mié.</t>
+  </si>
+  <si>
+    <t>05/02, jue.</t>
+  </si>
+  <si>
+    <t>06/02, vie.</t>
+  </si>
+  <si>
+    <t>07/02, sáb.</t>
+  </si>
+  <si>
+    <t>08/02, dom.</t>
+  </si>
+  <si>
+    <t>09/02, lun.</t>
+  </si>
+  <si>
+    <t>10/02, mar.</t>
+  </si>
+  <si>
+    <t>11/02, mié.</t>
+  </si>
+  <si>
+    <t>12/02, jue.</t>
+  </si>
+  <si>
+    <t>13/02, vie.</t>
+  </si>
+  <si>
+    <t>14/02, sáb.</t>
+  </si>
+  <si>
+    <t>15/02, dom.</t>
+  </si>
+  <si>
+    <t>16/02, lun.</t>
+  </si>
+  <si>
+    <t>17/02, mar.</t>
+  </si>
+  <si>
+    <t>18/02, mié.</t>
+  </si>
+  <si>
+    <t>19/02, jue.</t>
+  </si>
+  <si>
+    <t>20/02, vie.</t>
+  </si>
+  <si>
+    <t>21/02, sáb.</t>
+  </si>
+  <si>
+    <t>22/02, dom.</t>
+  </si>
+  <si>
+    <t>23/02, lun.</t>
+  </si>
+  <si>
+    <t>24/02, mar.</t>
+  </si>
+  <si>
+    <t>25/02, mié.</t>
+  </si>
+  <si>
+    <t>26/02, jue.</t>
+  </si>
+  <si>
+    <t>27/02, vie.</t>
+  </si>
+  <si>
+    <t>28/02, sáb.</t>
+  </si>
+  <si>
+    <t>01/03, dom.</t>
+  </si>
+  <si>
+    <t>02/03, lun.</t>
+  </si>
+  <si>
+    <t>03/03, mar.</t>
+  </si>
+  <si>
+    <t>04/03, mié.</t>
+  </si>
+  <si>
+    <t>05/03, jue.</t>
+  </si>
+  <si>
+    <t>06/03, vie.</t>
+  </si>
+  <si>
+    <t>07/03, sáb.</t>
+  </si>
+  <si>
+    <t>08/03, dom.</t>
+  </si>
+  <si>
+    <t>09/03, lun.</t>
+  </si>
+  <si>
+    <t>10/03, mar.</t>
+  </si>
+  <si>
+    <t>11/03, mié.</t>
+  </si>
+  <si>
+    <t>12/03, jue.</t>
+  </si>
+  <si>
+    <t>13/03, vie.</t>
+  </si>
+  <si>
+    <t>14/03, sáb.</t>
+  </si>
+  <si>
+    <t>15/03, dom.</t>
+  </si>
+  <si>
+    <t>16/03, lun.</t>
+  </si>
+  <si>
+    <t>17/03, mar.</t>
+  </si>
+  <si>
+    <t>18/03, mié.</t>
+  </si>
+  <si>
+    <t>19/03, jue.</t>
+  </si>
+  <si>
+    <t>20/03, vie.</t>
+  </si>
+  <si>
+    <t>21/03, sáb.</t>
+  </si>
+  <si>
+    <t>22/03, dom.</t>
+  </si>
+  <si>
+    <t>23/03, lun.</t>
+  </si>
+  <si>
+    <t>24/03, mar.</t>
+  </si>
+  <si>
+    <t>25/03, mié.</t>
+  </si>
+  <si>
+    <t>26/03, jue.</t>
+  </si>
+  <si>
+    <t>27/03, vie.</t>
+  </si>
+  <si>
+    <t>28/03, sáb.</t>
+  </si>
+  <si>
+    <t>29/03, dom.</t>
+  </si>
+  <si>
+    <t>30/03, lun.</t>
+  </si>
+  <si>
+    <t>31/03, mar.</t>
+  </si>
+  <si>
+    <t>01/04, mié.</t>
+  </si>
+  <si>
+    <t>02/04, jue.</t>
+  </si>
+  <si>
+    <t>03/04, vie.</t>
+  </si>
+  <si>
+    <t>04/04, sáb.</t>
+  </si>
+  <si>
+    <t>05/04, dom.</t>
+  </si>
+  <si>
+    <t>06/04, lun.</t>
+  </si>
+  <si>
+    <t>07/04, mar.</t>
+  </si>
+  <si>
+    <t>08/04, mié.</t>
+  </si>
+  <si>
+    <t>09/04, jue.</t>
+  </si>
+  <si>
+    <t>10/04, vie.</t>
+  </si>
+  <si>
+    <t>11/04, sáb.</t>
+  </si>
+  <si>
+    <t>12/04, dom.</t>
+  </si>
+  <si>
+    <t>13/04, lun.</t>
+  </si>
+  <si>
+    <t>14/04, mar.</t>
+  </si>
+  <si>
+    <t>15/04, mié.</t>
+  </si>
+  <si>
+    <t>16/04, jue.</t>
+  </si>
+  <si>
+    <t>17/04, vie.</t>
+  </si>
+  <si>
+    <t>18/04, sáb.</t>
+  </si>
+  <si>
+    <t>19/04, dom.</t>
+  </si>
+  <si>
+    <t>20/04, lun.</t>
+  </si>
+  <si>
+    <t>21/04, mar.</t>
+  </si>
+  <si>
+    <t>22/04, mié.</t>
+  </si>
+  <si>
+    <t>23/04, jue.</t>
+  </si>
+  <si>
+    <t>24/04, vie.</t>
+  </si>
+  <si>
+    <t>25/04, sáb.</t>
+  </si>
+  <si>
+    <t>26/04, dom.</t>
+  </si>
+  <si>
+    <t>27/04, lun.</t>
+  </si>
+  <si>
+    <t>28/04, mar.</t>
+  </si>
+  <si>
+    <t>29/04, mié.</t>
+  </si>
+  <si>
+    <t>30/04, jue.</t>
+  </si>
+  <si>
+    <t>01/05, vie.</t>
+  </si>
+  <si>
+    <t>02/05, sáb.</t>
+  </si>
+  <si>
+    <t>03/05, dom.</t>
+  </si>
+  <si>
+    <t>04/05, lun.</t>
+  </si>
+  <si>
+    <t>05/05, mar.</t>
+  </si>
+  <si>
+    <t>06/05, mié.</t>
+  </si>
+  <si>
+    <t>07/05, jue.</t>
+  </si>
+  <si>
+    <t>08/05, vie.</t>
+  </si>
+  <si>
+    <t>09/05, sáb.</t>
+  </si>
+  <si>
+    <t>10/05, dom.</t>
+  </si>
+  <si>
+    <t>11/05, lun.</t>
+  </si>
+  <si>
+    <t>12/05, mar.</t>
+  </si>
+  <si>
+    <t>13/05, mié.</t>
+  </si>
+  <si>
+    <t>14/05, jue.</t>
+  </si>
+  <si>
+    <t>15/05, vie.</t>
+  </si>
+  <si>
+    <t>16/05, sáb.</t>
+  </si>
+  <si>
+    <t>17/05, dom.</t>
+  </si>
+  <si>
+    <t>18/05, lun.</t>
+  </si>
+  <si>
+    <t>19/05, mar.</t>
+  </si>
+  <si>
+    <t>20/05, mié.</t>
+  </si>
+  <si>
+    <t>21/05, jue.</t>
+  </si>
+  <si>
+    <t>22/05, vie.</t>
+  </si>
+  <si>
+    <t>23/05, sáb.</t>
+  </si>
+  <si>
+    <t>24/05, dom.</t>
+  </si>
+  <si>
+    <t>25/05, lun.</t>
+  </si>
+  <si>
+    <t>26/05, mar.</t>
+  </si>
+  <si>
+    <t>27/05, mié.</t>
+  </si>
+  <si>
+    <t>28/05, jue.</t>
+  </si>
+  <si>
+    <t>29/05, vie.</t>
+  </si>
+  <si>
+    <t>30/05, sáb.</t>
+  </si>
+  <si>
+    <t>31/05, dom.</t>
+  </si>
+  <si>
+    <t>01/06, lun.</t>
+  </si>
+  <si>
+    <t>02/06, mar.</t>
+  </si>
+  <si>
+    <t>03/06, mié.</t>
+  </si>
+  <si>
+    <t>04/06, jue.</t>
+  </si>
+  <si>
+    <t>05/06, vie.</t>
+  </si>
+  <si>
+    <t>06/06, sáb.</t>
+  </si>
+  <si>
+    <t>07/06, dom.</t>
+  </si>
+  <si>
+    <t>08/06, lun.</t>
+  </si>
+  <si>
+    <t>09/06, mar.</t>
+  </si>
+  <si>
+    <t>10/06, mié.</t>
+  </si>
+  <si>
+    <t>11/06, jue.</t>
+  </si>
+  <si>
+    <t>12/06, vie.</t>
+  </si>
+  <si>
+    <t>13/06, sáb.</t>
+  </si>
+  <si>
+    <t>14/06, dom.</t>
+  </si>
+  <si>
+    <t>15/06, lun.</t>
+  </si>
+  <si>
+    <t>16/06, mar.</t>
+  </si>
+  <si>
+    <t>17/06, mié.</t>
+  </si>
+  <si>
+    <t>18/06, jue.</t>
+  </si>
+  <si>
+    <t>19/06, vie.</t>
+  </si>
+  <si>
+    <t>20/06, sáb.</t>
+  </si>
+  <si>
+    <t>21/06, dom.</t>
+  </si>
+  <si>
+    <t>22/06, lun.</t>
+  </si>
+  <si>
+    <t>23/06, mar.</t>
+  </si>
+  <si>
+    <t>24/06, mié.</t>
+  </si>
+  <si>
+    <t>25/06, jue.</t>
+  </si>
+  <si>
+    <t>26/06, vie.</t>
+  </si>
+  <si>
+    <t>27/06, sáb.</t>
+  </si>
+  <si>
+    <t>28/06, dom.</t>
+  </si>
+  <si>
+    <t>29/06, lun.</t>
+  </si>
+  <si>
+    <t>30/06, mar.</t>
+  </si>
+  <si>
+    <t>01/07, mié.</t>
+  </si>
+  <si>
+    <t>02/07, jue.</t>
+  </si>
+  <si>
+    <t>03/07, vie.</t>
+  </si>
+  <si>
+    <t>04/07, sáb.</t>
+  </si>
+  <si>
+    <t>05/07, dom.</t>
+  </si>
+  <si>
+    <t>06/07, lun.</t>
+  </si>
+  <si>
+    <t>07/07, mar.</t>
+  </si>
+  <si>
+    <t>08/07, mié.</t>
+  </si>
+  <si>
+    <t>09/07, jue.</t>
+  </si>
+  <si>
+    <t>10/07, vie.</t>
+  </si>
+  <si>
+    <t>11/07, sáb.</t>
+  </si>
+  <si>
+    <t>12/07, dom.</t>
+  </si>
+  <si>
+    <t>13/07, lun.</t>
+  </si>
+  <si>
+    <t>14/07, mar.</t>
+  </si>
+  <si>
+    <t>15/07, mié.</t>
+  </si>
+  <si>
+    <t>16/07, jue.</t>
+  </si>
+  <si>
+    <t>17/07, vie.</t>
+  </si>
+  <si>
+    <t>18/07, sáb.</t>
+  </si>
+  <si>
+    <t>19/07, dom.</t>
+  </si>
+  <si>
+    <t>20/07, lun.</t>
+  </si>
+  <si>
+    <t>21/07, mar.</t>
+  </si>
+  <si>
+    <t>22/07, mié.</t>
+  </si>
+  <si>
+    <t>23/07, jue.</t>
+  </si>
+  <si>
+    <t>24/07, vie.</t>
+  </si>
+  <si>
+    <t>25/07, sáb.</t>
+  </si>
+  <si>
+    <t>26/07, dom.</t>
+  </si>
+  <si>
+    <t>27/07, lun.</t>
+  </si>
+  <si>
+    <t>28/07, mar.</t>
+  </si>
+  <si>
+    <t>29/07, mié.</t>
+  </si>
+  <si>
+    <t>30/07, jue.</t>
+  </si>
+  <si>
+    <t>31/07, vie.</t>
+  </si>
+  <si>
+    <t>01/08, sáb.</t>
+  </si>
+  <si>
+    <t>02/08, dom.</t>
+  </si>
+  <si>
+    <t>03/08, lun.</t>
+  </si>
+  <si>
+    <t>04/08, mar.</t>
+  </si>
+  <si>
+    <t>05/08, mié.</t>
+  </si>
+  <si>
+    <t>06/08, jue.</t>
+  </si>
+  <si>
+    <t>07/08, vie.</t>
+  </si>
+  <si>
+    <t>08/08, sáb.</t>
+  </si>
+  <si>
+    <t>09/08, dom.</t>
+  </si>
+  <si>
+    <t>10/08, lun.</t>
+  </si>
+  <si>
+    <t>11/08, mar.</t>
+  </si>
+  <si>
+    <t>12/08, mié.</t>
+  </si>
+  <si>
+    <t>13/08, jue.</t>
+  </si>
+  <si>
+    <t>14/08, vie.</t>
+  </si>
+  <si>
+    <t>15/08, sáb.</t>
+  </si>
+  <si>
+    <t>16/08, dom.</t>
+  </si>
+  <si>
+    <t>17/08, lun.</t>
+  </si>
+  <si>
+    <t>18/08, mar.</t>
+  </si>
+  <si>
+    <t>19/08, mié.</t>
+  </si>
+  <si>
+    <t>20/08, jue.</t>
+  </si>
+  <si>
+    <t>21/08, vie.</t>
+  </si>
+  <si>
+    <t>22/08, sáb.</t>
+  </si>
+  <si>
+    <t>23/08, dom.</t>
+  </si>
+  <si>
+    <t>24/08, lun.</t>
+  </si>
+  <si>
+    <t>25/08, mar.</t>
+  </si>
+  <si>
+    <t>26/08, mié.</t>
+  </si>
+  <si>
+    <t>27/08, jue.</t>
+  </si>
+  <si>
+    <t>28/08, vie.</t>
+  </si>
+  <si>
+    <t>29/08, sáb.</t>
+  </si>
+  <si>
+    <t>30/08, dom.</t>
+  </si>
+  <si>
+    <t>31/08, lun.</t>
+  </si>
+  <si>
+    <t>01/09, mar.</t>
+  </si>
+  <si>
+    <t>02/09, mié.</t>
+  </si>
+  <si>
+    <t>03/09, jue.</t>
+  </si>
+  <si>
+    <t>04/09, vie.</t>
+  </si>
+  <si>
+    <t>05/09, sáb.</t>
+  </si>
+  <si>
+    <t>06/09, dom.</t>
+  </si>
+  <si>
+    <t>07/09, lun.</t>
+  </si>
+  <si>
+    <t>08/09, mar.</t>
+  </si>
+  <si>
+    <t>09/09, mié.</t>
+  </si>
+  <si>
+    <t>10/09, jue.</t>
+  </si>
+  <si>
+    <t>11/09, vie.</t>
+  </si>
+  <si>
+    <t>12/09, sáb.</t>
+  </si>
+  <si>
+    <t>13/09, dom.</t>
+  </si>
+  <si>
+    <t>14/09, lun.</t>
+  </si>
+  <si>
+    <t>15/09, mar.</t>
+  </si>
+  <si>
+    <t>16/09, mié.</t>
+  </si>
+  <si>
+    <t>17/09, jue.</t>
+  </si>
+  <si>
+    <t>18/09, vie.</t>
+  </si>
+  <si>
+    <t>19/09, sáb.</t>
+  </si>
+  <si>
+    <t>20/09, dom.</t>
+  </si>
+  <si>
+    <t>21/09, lun.</t>
+  </si>
+  <si>
+    <t>22/09, mar.</t>
+  </si>
+  <si>
+    <t>23/09, mié.</t>
+  </si>
+  <si>
+    <t>24/09, jue.</t>
+  </si>
+  <si>
+    <t>25/09, vie.</t>
+  </si>
+  <si>
+    <t>26/09, sáb.</t>
+  </si>
+  <si>
+    <t>27/09, dom.</t>
+  </si>
+  <si>
+    <t>28/09, lun.</t>
+  </si>
+  <si>
+    <t>29/09, mar.</t>
+  </si>
+  <si>
+    <t>30/09, mié.</t>
+  </si>
+  <si>
+    <t>01/10, jue.</t>
+  </si>
+  <si>
+    <t>02/10, vie.</t>
+  </si>
+  <si>
+    <t>03/10, sáb.</t>
+  </si>
+  <si>
+    <t>04/10, dom.</t>
+  </si>
+  <si>
+    <t>05/10, lun.</t>
+  </si>
+  <si>
+    <t>06/10, mar.</t>
+  </si>
+  <si>
+    <t>07/10, mié.</t>
+  </si>
+  <si>
+    <t>08/10, jue.</t>
+  </si>
+  <si>
+    <t>09/10, vie.</t>
+  </si>
+  <si>
+    <t>10/10, sáb.</t>
+  </si>
+  <si>
+    <t>11/10, dom.</t>
+  </si>
+  <si>
+    <t>12/10, lun.</t>
+  </si>
+  <si>
+    <t>13/10, mar.</t>
+  </si>
+  <si>
+    <t>14/10, mié.</t>
+  </si>
+  <si>
+    <t>15/10, jue.</t>
+  </si>
+  <si>
+    <t>16/10, vie.</t>
+  </si>
+  <si>
+    <t>17/10, sáb.</t>
+  </si>
+  <si>
+    <t>18/10, dom.</t>
+  </si>
+  <si>
+    <t>19/10, lun.</t>
+  </si>
+  <si>
+    <t>20/10, mar.</t>
+  </si>
+  <si>
+    <t>21/10, mié.</t>
+  </si>
+  <si>
+    <t>22/10, jue.</t>
+  </si>
+  <si>
+    <t>23/10, vie.</t>
+  </si>
+  <si>
+    <t>24/10, sáb.</t>
+  </si>
+  <si>
+    <t>25/10, dom.</t>
+  </si>
+  <si>
+    <t>26/10, lun.</t>
+  </si>
+  <si>
+    <t>27/10, mar.</t>
+  </si>
+  <si>
+    <t>28/10, mié.</t>
+  </si>
+  <si>
+    <t>29/10, jue.</t>
+  </si>
+  <si>
+    <t>30/10, vie.</t>
+  </si>
+  <si>
+    <t>31/10, sáb.</t>
+  </si>
+  <si>
+    <t>01/11, dom.</t>
+  </si>
+  <si>
+    <t>02/11, lun.</t>
+  </si>
+  <si>
+    <t>03/11, mar.</t>
+  </si>
+  <si>
+    <t>04/11, mié.</t>
+  </si>
+  <si>
+    <t>05/11, jue.</t>
+  </si>
+  <si>
+    <t>06/11, vie.</t>
+  </si>
+  <si>
+    <t>07/11, sáb.</t>
+  </si>
+  <si>
+    <t>08/11, dom.</t>
+  </si>
+  <si>
+    <t>09/11, lun.</t>
+  </si>
+  <si>
+    <t>10/11, mar.</t>
+  </si>
+  <si>
+    <t>11/11, mié.</t>
+  </si>
+  <si>
+    <t>12/11, jue.</t>
+  </si>
+  <si>
+    <t>13/11, vie.</t>
+  </si>
+  <si>
+    <t>14/11, sáb.</t>
+  </si>
+  <si>
+    <t>15/11, dom.</t>
+  </si>
+  <si>
+    <t>16/11, lun.</t>
+  </si>
+  <si>
+    <t>17/11, mar.</t>
+  </si>
+  <si>
+    <t>18/11, mié.</t>
+  </si>
+  <si>
+    <t>19/11, jue.</t>
+  </si>
+  <si>
+    <t>20/11, vie.</t>
+  </si>
+  <si>
+    <t>21/11, sáb.</t>
+  </si>
+  <si>
+    <t>22/11, dom.</t>
+  </si>
+  <si>
+    <t>23/11, lun.</t>
+  </si>
+  <si>
+    <t>24/11, mar.</t>
+  </si>
+  <si>
+    <t>25/11, mié.</t>
+  </si>
+  <si>
+    <t>26/11, jue.</t>
+  </si>
+  <si>
+    <t>27/11, vie.</t>
+  </si>
+  <si>
+    <t>28/11, sáb.</t>
+  </si>
+  <si>
+    <t>29/11, dom.</t>
+  </si>
+  <si>
+    <t>30/11, lun.</t>
+  </si>
+  <si>
+    <t>01/12, mar.</t>
+  </si>
+  <si>
+    <t>02/12, mié.</t>
+  </si>
+  <si>
+    <t>03/12, jue.</t>
+  </si>
+  <si>
+    <t>04/12, vie.</t>
+  </si>
+  <si>
+    <t>05/12, sáb.</t>
+  </si>
+  <si>
+    <t>06/12, dom.</t>
+  </si>
+  <si>
+    <t>07/12, lun.</t>
+  </si>
+  <si>
+    <t>08/12, mar.</t>
+  </si>
+  <si>
+    <t>09/12, mié.</t>
+  </si>
+  <si>
+    <t>10/12, jue.</t>
+  </si>
+  <si>
+    <t>11/12, vie.</t>
+  </si>
+  <si>
+    <t>12/12, sáb.</t>
+  </si>
+  <si>
+    <t>13/12, dom.</t>
+  </si>
+  <si>
+    <t>14/12, lun.</t>
+  </si>
+  <si>
+    <t>15/12, mar.</t>
+  </si>
+  <si>
+    <t>16/12, mié.</t>
+  </si>
+  <si>
+    <t>17/12, jue.</t>
+  </si>
+  <si>
+    <t>18/12, vie.</t>
+  </si>
+  <si>
+    <t>19/12, sáb.</t>
+  </si>
+  <si>
+    <t>20/12, dom.</t>
+  </si>
+  <si>
+    <t>21/12, lun.</t>
+  </si>
+  <si>
+    <t>22/12, mar.</t>
+  </si>
+  <si>
+    <t>23/12, mié.</t>
+  </si>
+  <si>
+    <t>24/12, jue.</t>
+  </si>
+  <si>
+    <t>25/12, vie.</t>
+  </si>
+  <si>
+    <t>26/12, sáb.</t>
+  </si>
+  <si>
+    <t>27/12, dom.</t>
+  </si>
+  <si>
+    <t>28/12, lun.</t>
+  </si>
+  <si>
+    <t>29/12, mar.</t>
+  </si>
+  <si>
+    <t>30/12, mié.</t>
+  </si>
+  <si>
+    <t>31/12, jue.</t>
+  </si>
+  <si>
+    <t>ENERO</t>
+  </si>
+  <si>
+    <t>FEBRERO</t>
+  </si>
+  <si>
+    <t>MARZO</t>
+  </si>
+  <si>
+    <t>ABRIL</t>
+  </si>
+  <si>
+    <t>MAYO</t>
+  </si>
+  <si>
+    <t>JUNIO</t>
   </si>
 </sst>
 </file>
@@ -716,7 +1829,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -982,11 +2095,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1042,13 +2183,28 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1072,23 +2228,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1404,10 +2569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1AFFB5D-2721-4606-A4D1-57BC3390625B}">
-  <dimension ref="A1:D188"/>
+  <dimension ref="A1:D553"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="G186" sqref="G186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1416,42 +2581,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="31" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="27"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="32"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="27"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="32"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="28"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="33"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2025</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="25" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1465,7 +2630,7 @@
       <c r="A6">
         <v>2025</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
@@ -1477,7 +2642,7 @@
       <c r="A7">
         <v>2025</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
@@ -1489,7 +2654,7 @@
       <c r="A8">
         <v>2025</v>
       </c>
-      <c r="B8" s="20"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="3" t="s">
         <v>19</v>
       </c>
@@ -1501,7 +2666,7 @@
       <c r="A9">
         <v>2025</v>
       </c>
-      <c r="B9" s="20"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
@@ -1513,7 +2678,7 @@
       <c r="A10">
         <v>2025</v>
       </c>
-      <c r="B10" s="20"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="8" t="s">
         <v>21</v>
       </c>
@@ -1525,7 +2690,7 @@
       <c r="A11">
         <v>2025</v>
       </c>
-      <c r="B11" s="20"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1537,7 +2702,7 @@
       <c r="A12">
         <v>2025</v>
       </c>
-      <c r="B12" s="20"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="3" t="s">
         <v>23</v>
       </c>
@@ -1549,7 +2714,7 @@
       <c r="A13">
         <v>2025</v>
       </c>
-      <c r="B13" s="20"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="3" t="s">
         <v>24</v>
       </c>
@@ -1561,7 +2726,7 @@
       <c r="A14">
         <v>2025</v>
       </c>
-      <c r="B14" s="20"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="3" t="s">
         <v>25</v>
       </c>
@@ -1573,7 +2738,7 @@
       <c r="A15">
         <v>2025</v>
       </c>
-      <c r="B15" s="20"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="3" t="s">
         <v>26</v>
       </c>
@@ -1585,8 +2750,8 @@
       <c r="A16">
         <v>2025</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="29" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="19" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="14" t="s">
@@ -1597,7 +2762,7 @@
       <c r="A17">
         <v>2025</v>
       </c>
-      <c r="B17" s="20"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="8" t="s">
         <v>28</v>
       </c>
@@ -1609,7 +2774,7 @@
       <c r="A18">
         <v>2025</v>
       </c>
-      <c r="B18" s="20"/>
+      <c r="B18" s="26"/>
       <c r="C18" s="1" t="s">
         <v>29</v>
       </c>
@@ -1621,7 +2786,7 @@
       <c r="A19">
         <v>2025</v>
       </c>
-      <c r="B19" s="20"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="3" t="s">
         <v>30</v>
       </c>
@@ -1633,8 +2798,8 @@
       <c r="A20">
         <v>2025</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="30" t="s">
+      <c r="B20" s="26"/>
+      <c r="C20" s="20" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -1645,7 +2810,7 @@
       <c r="A21">
         <v>2025</v>
       </c>
-      <c r="B21" s="20"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="3" t="s">
         <v>32</v>
       </c>
@@ -1657,7 +2822,7 @@
       <c r="A22">
         <v>2025</v>
       </c>
-      <c r="B22" s="20"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="3" t="s">
         <v>33</v>
       </c>
@@ -1669,7 +2834,7 @@
       <c r="A23">
         <v>2025</v>
       </c>
-      <c r="B23" s="20"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="10" t="s">
         <v>34</v>
       </c>
@@ -1681,7 +2846,7 @@
       <c r="A24">
         <v>2025</v>
       </c>
-      <c r="B24" s="20"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="8" t="s">
         <v>35</v>
       </c>
@@ -1693,7 +2858,7 @@
       <c r="A25">
         <v>2025</v>
       </c>
-      <c r="B25" s="20"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="1" t="s">
         <v>36</v>
       </c>
@@ -1705,7 +2870,7 @@
       <c r="A26">
         <v>2025</v>
       </c>
-      <c r="B26" s="20"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="3" t="s">
         <v>37</v>
       </c>
@@ -1717,7 +2882,7 @@
       <c r="A27">
         <v>2025</v>
       </c>
-      <c r="B27" s="20"/>
+      <c r="B27" s="26"/>
       <c r="C27" s="3" t="s">
         <v>38</v>
       </c>
@@ -1729,7 +2894,7 @@
       <c r="A28">
         <v>2025</v>
       </c>
-      <c r="B28" s="20"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="3" t="s">
         <v>39</v>
       </c>
@@ -1741,7 +2906,7 @@
       <c r="A29">
         <v>2025</v>
       </c>
-      <c r="B29" s="20"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="3" t="s">
         <v>40</v>
       </c>
@@ -1753,7 +2918,7 @@
       <c r="A30">
         <v>2025</v>
       </c>
-      <c r="B30" s="20"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="10" t="s">
         <v>41</v>
       </c>
@@ -1765,7 +2930,7 @@
       <c r="A31">
         <v>2025</v>
       </c>
-      <c r="B31" s="20"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="8" t="s">
         <v>42</v>
       </c>
@@ -1777,7 +2942,7 @@
       <c r="A32">
         <v>2025</v>
       </c>
-      <c r="B32" s="20"/>
+      <c r="B32" s="26"/>
       <c r="C32" s="1" t="s">
         <v>43</v>
       </c>
@@ -1789,7 +2954,7 @@
       <c r="A33">
         <v>2025</v>
       </c>
-      <c r="B33" s="20"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="3" t="s">
         <v>44</v>
       </c>
@@ -1801,7 +2966,7 @@
       <c r="A34">
         <v>2025</v>
       </c>
-      <c r="B34" s="20"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="3" t="s">
         <v>45</v>
       </c>
@@ -1813,8 +2978,8 @@
       <c r="A35">
         <v>2025</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="31" t="s">
+      <c r="B35" s="34"/>
+      <c r="C35" s="21" t="s">
         <v>46</v>
       </c>
       <c r="D35" s="4" t="s">
@@ -1825,7 +2990,7 @@
       <c r="A36">
         <v>2025</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="25" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -1839,7 +3004,7 @@
       <c r="A37">
         <v>2025</v>
       </c>
-      <c r="B37" s="20"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="10" t="s">
         <v>48</v>
       </c>
@@ -1851,7 +3016,7 @@
       <c r="A38">
         <v>2025</v>
       </c>
-      <c r="B38" s="20"/>
+      <c r="B38" s="26"/>
       <c r="C38" s="8" t="s">
         <v>49</v>
       </c>
@@ -1863,7 +3028,7 @@
       <c r="A39">
         <v>2025</v>
       </c>
-      <c r="B39" s="20"/>
+      <c r="B39" s="26"/>
       <c r="C39" s="1" t="s">
         <v>50</v>
       </c>
@@ -1875,7 +3040,7 @@
       <c r="A40">
         <v>2025</v>
       </c>
-      <c r="B40" s="20"/>
+      <c r="B40" s="26"/>
       <c r="C40" s="3" t="s">
         <v>51</v>
       </c>
@@ -1887,7 +3052,7 @@
       <c r="A41">
         <v>2025</v>
       </c>
-      <c r="B41" s="20"/>
+      <c r="B41" s="26"/>
       <c r="C41" s="3" t="s">
         <v>52</v>
       </c>
@@ -1899,7 +3064,7 @@
       <c r="A42">
         <v>2025</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="26"/>
       <c r="C42" s="3" t="s">
         <v>53</v>
       </c>
@@ -1911,7 +3076,7 @@
       <c r="A43">
         <v>2025</v>
       </c>
-      <c r="B43" s="20"/>
+      <c r="B43" s="26"/>
       <c r="C43" s="3" t="s">
         <v>54</v>
       </c>
@@ -1923,7 +3088,7 @@
       <c r="A44">
         <v>2025</v>
       </c>
-      <c r="B44" s="20"/>
+      <c r="B44" s="26"/>
       <c r="C44" s="10" t="s">
         <v>55</v>
       </c>
@@ -1935,7 +3100,7 @@
       <c r="A45">
         <v>2025</v>
       </c>
-      <c r="B45" s="20"/>
+      <c r="B45" s="26"/>
       <c r="C45" s="8" t="s">
         <v>56</v>
       </c>
@@ -1947,7 +3112,7 @@
       <c r="A46">
         <v>2025</v>
       </c>
-      <c r="B46" s="20"/>
+      <c r="B46" s="26"/>
       <c r="C46" s="1" t="s">
         <v>57</v>
       </c>
@@ -1959,7 +3124,7 @@
       <c r="A47">
         <v>2025</v>
       </c>
-      <c r="B47" s="20"/>
+      <c r="B47" s="26"/>
       <c r="C47" s="3" t="s">
         <v>58</v>
       </c>
@@ -1971,7 +3136,7 @@
       <c r="A48">
         <v>2025</v>
       </c>
-      <c r="B48" s="20"/>
+      <c r="B48" s="26"/>
       <c r="C48" s="3" t="s">
         <v>59</v>
       </c>
@@ -1983,7 +3148,7 @@
       <c r="A49">
         <v>2025</v>
       </c>
-      <c r="B49" s="20"/>
+      <c r="B49" s="26"/>
       <c r="C49" s="3" t="s">
         <v>60</v>
       </c>
@@ -1995,8 +3160,8 @@
       <c r="A50">
         <v>2025</v>
       </c>
-      <c r="B50" s="20"/>
-      <c r="C50" s="30" t="s">
+      <c r="B50" s="26"/>
+      <c r="C50" s="20" t="s">
         <v>61</v>
       </c>
       <c r="D50" s="4" t="s">
@@ -2007,7 +3172,7 @@
       <c r="A51">
         <v>2025</v>
       </c>
-      <c r="B51" s="20"/>
+      <c r="B51" s="26"/>
       <c r="C51" s="10" t="s">
         <v>62</v>
       </c>
@@ -2019,7 +3184,7 @@
       <c r="A52">
         <v>2025</v>
       </c>
-      <c r="B52" s="20"/>
+      <c r="B52" s="26"/>
       <c r="C52" s="8" t="s">
         <v>63</v>
       </c>
@@ -2031,7 +3196,7 @@
       <c r="A53">
         <v>2025</v>
       </c>
-      <c r="B53" s="20"/>
+      <c r="B53" s="26"/>
       <c r="C53" s="1" t="s">
         <v>64</v>
       </c>
@@ -2043,7 +3208,7 @@
       <c r="A54">
         <v>2025</v>
       </c>
-      <c r="B54" s="20"/>
+      <c r="B54" s="26"/>
       <c r="C54" s="3" t="s">
         <v>65</v>
       </c>
@@ -2055,7 +3220,7 @@
       <c r="A55">
         <v>2025</v>
       </c>
-      <c r="B55" s="20"/>
+      <c r="B55" s="26"/>
       <c r="C55" s="3" t="s">
         <v>66</v>
       </c>
@@ -2067,7 +3232,7 @@
       <c r="A56">
         <v>2025</v>
       </c>
-      <c r="B56" s="20"/>
+      <c r="B56" s="26"/>
       <c r="C56" s="3" t="s">
         <v>67</v>
       </c>
@@ -2079,7 +3244,7 @@
       <c r="A57">
         <v>2025</v>
       </c>
-      <c r="B57" s="20"/>
+      <c r="B57" s="26"/>
       <c r="C57" s="3" t="s">
         <v>68</v>
       </c>
@@ -2091,7 +3256,7 @@
       <c r="A58">
         <v>2025</v>
       </c>
-      <c r="B58" s="20"/>
+      <c r="B58" s="26"/>
       <c r="C58" s="10" t="s">
         <v>69</v>
       </c>
@@ -2103,7 +3268,7 @@
       <c r="A59">
         <v>2025</v>
       </c>
-      <c r="B59" s="20"/>
+      <c r="B59" s="26"/>
       <c r="C59" s="8" t="s">
         <v>70</v>
       </c>
@@ -2115,7 +3280,7 @@
       <c r="A60">
         <v>2025</v>
       </c>
-      <c r="B60" s="20"/>
+      <c r="B60" s="26"/>
       <c r="C60" s="1" t="s">
         <v>71</v>
       </c>
@@ -2127,7 +3292,7 @@
       <c r="A61">
         <v>2025</v>
       </c>
-      <c r="B61" s="20"/>
+      <c r="B61" s="26"/>
       <c r="C61" s="3" t="s">
         <v>72</v>
       </c>
@@ -2139,7 +3304,7 @@
       <c r="A62">
         <v>2025</v>
       </c>
-      <c r="B62" s="20"/>
+      <c r="B62" s="26"/>
       <c r="C62" s="3" t="s">
         <v>73</v>
       </c>
@@ -2151,7 +3316,7 @@
       <c r="A63">
         <v>2025</v>
       </c>
-      <c r="B63" s="20"/>
+      <c r="B63" s="26"/>
       <c r="C63" s="3" t="s">
         <v>74</v>
       </c>
@@ -2163,7 +3328,7 @@
       <c r="A64">
         <v>2025</v>
       </c>
-      <c r="B64" s="20"/>
+      <c r="B64" s="26"/>
       <c r="C64" s="3" t="s">
         <v>75</v>
       </c>
@@ -2175,7 +3340,7 @@
       <c r="A65">
         <v>2025</v>
       </c>
-      <c r="B65" s="20"/>
+      <c r="B65" s="26"/>
       <c r="C65" s="10" t="s">
         <v>76</v>
       </c>
@@ -2187,7 +3352,7 @@
       <c r="A66">
         <v>2025</v>
       </c>
-      <c r="B66" s="21"/>
+      <c r="B66" s="34"/>
       <c r="C66" s="8" t="s">
         <v>77</v>
       </c>
@@ -2199,7 +3364,7 @@
       <c r="A67">
         <v>2025</v>
       </c>
-      <c r="B67" s="19" t="s">
+      <c r="B67" s="25" t="s">
         <v>12</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -2213,7 +3378,7 @@
       <c r="A68">
         <v>2025</v>
       </c>
-      <c r="B68" s="20"/>
+      <c r="B68" s="26"/>
       <c r="C68" s="3" t="s">
         <v>79</v>
       </c>
@@ -2225,7 +3390,7 @@
       <c r="A69">
         <v>2025</v>
       </c>
-      <c r="B69" s="20"/>
+      <c r="B69" s="26"/>
       <c r="C69" s="3" t="s">
         <v>80</v>
       </c>
@@ -2237,7 +3402,7 @@
       <c r="A70">
         <v>2025</v>
       </c>
-      <c r="B70" s="20"/>
+      <c r="B70" s="26"/>
       <c r="C70" s="3" t="s">
         <v>81</v>
       </c>
@@ -2249,7 +3414,7 @@
       <c r="A71">
         <v>2025</v>
       </c>
-      <c r="B71" s="20"/>
+      <c r="B71" s="26"/>
       <c r="C71" s="3" t="s">
         <v>82</v>
       </c>
@@ -2261,7 +3426,7 @@
       <c r="A72">
         <v>2025</v>
       </c>
-      <c r="B72" s="20"/>
+      <c r="B72" s="26"/>
       <c r="C72" s="10" t="s">
         <v>83</v>
       </c>
@@ -2273,7 +3438,7 @@
       <c r="A73">
         <v>2025</v>
       </c>
-      <c r="B73" s="20"/>
+      <c r="B73" s="26"/>
       <c r="C73" s="8" t="s">
         <v>84</v>
       </c>
@@ -2285,7 +3450,7 @@
       <c r="A74">
         <v>2025</v>
       </c>
-      <c r="B74" s="20"/>
+      <c r="B74" s="26"/>
       <c r="C74" s="1" t="s">
         <v>85</v>
       </c>
@@ -2297,7 +3462,7 @@
       <c r="A75">
         <v>2025</v>
       </c>
-      <c r="B75" s="20"/>
+      <c r="B75" s="26"/>
       <c r="C75" s="3" t="s">
         <v>86</v>
       </c>
@@ -2309,7 +3474,7 @@
       <c r="A76">
         <v>2025</v>
       </c>
-      <c r="B76" s="20"/>
+      <c r="B76" s="26"/>
       <c r="C76" s="3" t="s">
         <v>87</v>
       </c>
@@ -2321,7 +3486,7 @@
       <c r="A77">
         <v>2025</v>
       </c>
-      <c r="B77" s="20"/>
+      <c r="B77" s="26"/>
       <c r="C77" s="3" t="s">
         <v>88</v>
       </c>
@@ -2333,7 +3498,7 @@
       <c r="A78">
         <v>2025</v>
       </c>
-      <c r="B78" s="20"/>
+      <c r="B78" s="26"/>
       <c r="C78" s="3" t="s">
         <v>89</v>
       </c>
@@ -2345,7 +3510,7 @@
       <c r="A79">
         <v>2025</v>
       </c>
-      <c r="B79" s="20"/>
+      <c r="B79" s="26"/>
       <c r="C79" s="10" t="s">
         <v>90</v>
       </c>
@@ -2357,7 +3522,7 @@
       <c r="A80">
         <v>2025</v>
       </c>
-      <c r="B80" s="20"/>
+      <c r="B80" s="26"/>
       <c r="C80" s="8" t="s">
         <v>91</v>
       </c>
@@ -2369,7 +3534,7 @@
       <c r="A81">
         <v>2025</v>
       </c>
-      <c r="B81" s="20"/>
+      <c r="B81" s="26"/>
       <c r="C81" s="1" t="s">
         <v>92</v>
       </c>
@@ -2381,7 +3546,7 @@
       <c r="A82">
         <v>2025</v>
       </c>
-      <c r="B82" s="20"/>
+      <c r="B82" s="26"/>
       <c r="C82" s="3" t="s">
         <v>93</v>
       </c>
@@ -2393,7 +3558,7 @@
       <c r="A83">
         <v>2025</v>
       </c>
-      <c r="B83" s="20"/>
+      <c r="B83" s="26"/>
       <c r="C83" s="3" t="s">
         <v>94</v>
       </c>
@@ -2405,8 +3570,8 @@
       <c r="A84">
         <v>2025</v>
       </c>
-      <c r="B84" s="20"/>
-      <c r="C84" s="30" t="s">
+      <c r="B84" s="26"/>
+      <c r="C84" s="20" t="s">
         <v>95</v>
       </c>
       <c r="D84" s="4" t="s">
@@ -2417,8 +3582,8 @@
       <c r="A85">
         <v>2025</v>
       </c>
-      <c r="B85" s="20"/>
-      <c r="C85" s="30" t="s">
+      <c r="B85" s="26"/>
+      <c r="C85" s="20" t="s">
         <v>96</v>
       </c>
       <c r="D85" s="4" t="s">
@@ -2429,7 +3594,7 @@
       <c r="A86">
         <v>2025</v>
       </c>
-      <c r="B86" s="20"/>
+      <c r="B86" s="26"/>
       <c r="C86" s="10" t="s">
         <v>97</v>
       </c>
@@ -2441,7 +3606,7 @@
       <c r="A87">
         <v>2025</v>
       </c>
-      <c r="B87" s="20"/>
+      <c r="B87" s="26"/>
       <c r="C87" s="8" t="s">
         <v>98</v>
       </c>
@@ -2453,7 +3618,7 @@
       <c r="A88">
         <v>2025</v>
       </c>
-      <c r="B88" s="20"/>
+      <c r="B88" s="26"/>
       <c r="C88" s="1" t="s">
         <v>99</v>
       </c>
@@ -2465,7 +3630,7 @@
       <c r="A89">
         <v>2025</v>
       </c>
-      <c r="B89" s="20"/>
+      <c r="B89" s="26"/>
       <c r="C89" s="3" t="s">
         <v>100</v>
       </c>
@@ -2477,7 +3642,7 @@
       <c r="A90">
         <v>2025</v>
       </c>
-      <c r="B90" s="20"/>
+      <c r="B90" s="26"/>
       <c r="C90" s="3" t="s">
         <v>101</v>
       </c>
@@ -2489,7 +3654,7 @@
       <c r="A91">
         <v>2025</v>
       </c>
-      <c r="B91" s="20"/>
+      <c r="B91" s="26"/>
       <c r="C91" s="3" t="s">
         <v>102</v>
       </c>
@@ -2501,7 +3666,7 @@
       <c r="A92">
         <v>2025</v>
       </c>
-      <c r="B92" s="20"/>
+      <c r="B92" s="26"/>
       <c r="C92" s="3" t="s">
         <v>103</v>
       </c>
@@ -2513,7 +3678,7 @@
       <c r="A93">
         <v>2025</v>
       </c>
-      <c r="B93" s="20"/>
+      <c r="B93" s="26"/>
       <c r="C93" s="10" t="s">
         <v>104</v>
       </c>
@@ -2525,7 +3690,7 @@
       <c r="A94">
         <v>2025</v>
       </c>
-      <c r="B94" s="20"/>
+      <c r="B94" s="26"/>
       <c r="C94" s="8" t="s">
         <v>105</v>
       </c>
@@ -2537,7 +3702,7 @@
       <c r="A95">
         <v>2025</v>
       </c>
-      <c r="B95" s="20"/>
+      <c r="B95" s="26"/>
       <c r="C95" s="1" t="s">
         <v>106</v>
       </c>
@@ -2549,7 +3714,7 @@
       <c r="A96">
         <v>2025</v>
       </c>
-      <c r="B96" s="21"/>
+      <c r="B96" s="34"/>
       <c r="C96" s="13" t="s">
         <v>107</v>
       </c>
@@ -2561,7 +3726,7 @@
       <c r="A97">
         <v>2025</v>
       </c>
-      <c r="B97" s="19" t="s">
+      <c r="B97" s="25" t="s">
         <v>13</v>
       </c>
       <c r="C97" s="1" t="s">
@@ -2575,7 +3740,7 @@
       <c r="A98">
         <v>2025</v>
       </c>
-      <c r="B98" s="20"/>
+      <c r="B98" s="26"/>
       <c r="C98" s="3" t="s">
         <v>109</v>
       </c>
@@ -2587,7 +3752,7 @@
       <c r="A99">
         <v>2025</v>
       </c>
-      <c r="B99" s="20"/>
+      <c r="B99" s="26"/>
       <c r="C99" s="3" t="s">
         <v>110</v>
       </c>
@@ -2599,7 +3764,7 @@
       <c r="A100">
         <v>2025</v>
       </c>
-      <c r="B100" s="20"/>
+      <c r="B100" s="26"/>
       <c r="C100" s="10" t="s">
         <v>111</v>
       </c>
@@ -2611,7 +3776,7 @@
       <c r="A101">
         <v>2025</v>
       </c>
-      <c r="B101" s="20"/>
+      <c r="B101" s="26"/>
       <c r="C101" s="8" t="s">
         <v>112</v>
       </c>
@@ -2623,7 +3788,7 @@
       <c r="A102">
         <v>2025</v>
       </c>
-      <c r="B102" s="20"/>
+      <c r="B102" s="26"/>
       <c r="C102" s="1" t="s">
         <v>113</v>
       </c>
@@ -2635,7 +3800,7 @@
       <c r="A103">
         <v>2025</v>
       </c>
-      <c r="B103" s="20"/>
+      <c r="B103" s="26"/>
       <c r="C103" s="3" t="s">
         <v>114</v>
       </c>
@@ -2647,7 +3812,7 @@
       <c r="A104">
         <v>2025</v>
       </c>
-      <c r="B104" s="20"/>
+      <c r="B104" s="26"/>
       <c r="C104" s="3" t="s">
         <v>115</v>
       </c>
@@ -2659,7 +3824,7 @@
       <c r="A105">
         <v>2025</v>
       </c>
-      <c r="B105" s="20"/>
+      <c r="B105" s="26"/>
       <c r="C105" s="3" t="s">
         <v>116</v>
       </c>
@@ -2671,7 +3836,7 @@
       <c r="A106">
         <v>2025</v>
       </c>
-      <c r="B106" s="20"/>
+      <c r="B106" s="26"/>
       <c r="C106" s="3" t="s">
         <v>117</v>
       </c>
@@ -2683,7 +3848,7 @@
       <c r="A107">
         <v>2025</v>
       </c>
-      <c r="B107" s="20"/>
+      <c r="B107" s="26"/>
       <c r="C107" s="10" t="s">
         <v>118</v>
       </c>
@@ -2695,7 +3860,7 @@
       <c r="A108">
         <v>2025</v>
       </c>
-      <c r="B108" s="20"/>
+      <c r="B108" s="26"/>
       <c r="C108" s="8" t="s">
         <v>119</v>
       </c>
@@ -2707,7 +3872,7 @@
       <c r="A109">
         <v>2025</v>
       </c>
-      <c r="B109" s="20"/>
+      <c r="B109" s="26"/>
       <c r="C109" s="1" t="s">
         <v>120</v>
       </c>
@@ -2719,7 +3884,7 @@
       <c r="A110">
         <v>2025</v>
       </c>
-      <c r="B110" s="20"/>
+      <c r="B110" s="26"/>
       <c r="C110" s="3" t="s">
         <v>121</v>
       </c>
@@ -2731,7 +3896,7 @@
       <c r="A111">
         <v>2025</v>
       </c>
-      <c r="B111" s="20"/>
+      <c r="B111" s="26"/>
       <c r="C111" s="3" t="s">
         <v>122</v>
       </c>
@@ -2743,7 +3908,7 @@
       <c r="A112">
         <v>2025</v>
       </c>
-      <c r="B112" s="20"/>
+      <c r="B112" s="26"/>
       <c r="C112" s="3" t="s">
         <v>123</v>
       </c>
@@ -2755,7 +3920,7 @@
       <c r="A113">
         <v>2025</v>
       </c>
-      <c r="B113" s="20"/>
+      <c r="B113" s="26"/>
       <c r="C113" s="3" t="s">
         <v>124</v>
       </c>
@@ -2767,7 +3932,7 @@
       <c r="A114">
         <v>2025</v>
       </c>
-      <c r="B114" s="20"/>
+      <c r="B114" s="26"/>
       <c r="C114" s="10" t="s">
         <v>125</v>
       </c>
@@ -2779,7 +3944,7 @@
       <c r="A115">
         <v>2025</v>
       </c>
-      <c r="B115" s="20"/>
+      <c r="B115" s="26"/>
       <c r="C115" s="8" t="s">
         <v>126</v>
       </c>
@@ -2791,7 +3956,7 @@
       <c r="A116">
         <v>2025</v>
       </c>
-      <c r="B116" s="20"/>
+      <c r="B116" s="26"/>
       <c r="C116" s="1" t="s">
         <v>127</v>
       </c>
@@ -2803,7 +3968,7 @@
       <c r="A117">
         <v>2025</v>
       </c>
-      <c r="B117" s="20"/>
+      <c r="B117" s="26"/>
       <c r="C117" s="3" t="s">
         <v>128</v>
       </c>
@@ -2815,7 +3980,7 @@
       <c r="A118">
         <v>2025</v>
       </c>
-      <c r="B118" s="20"/>
+      <c r="B118" s="26"/>
       <c r="C118" s="3" t="s">
         <v>129</v>
       </c>
@@ -2827,7 +3992,7 @@
       <c r="A119">
         <v>2025</v>
       </c>
-      <c r="B119" s="20"/>
+      <c r="B119" s="26"/>
       <c r="C119" s="3" t="s">
         <v>130</v>
       </c>
@@ -2839,7 +4004,7 @@
       <c r="A120">
         <v>2025</v>
       </c>
-      <c r="B120" s="20"/>
+      <c r="B120" s="26"/>
       <c r="C120" s="3" t="s">
         <v>131</v>
       </c>
@@ -2851,7 +4016,7 @@
       <c r="A121">
         <v>2025</v>
       </c>
-      <c r="B121" s="20"/>
+      <c r="B121" s="26"/>
       <c r="C121" s="10" t="s">
         <v>132</v>
       </c>
@@ -2863,7 +4028,7 @@
       <c r="A122">
         <v>2025</v>
       </c>
-      <c r="B122" s="20"/>
+      <c r="B122" s="26"/>
       <c r="C122" s="8" t="s">
         <v>133</v>
       </c>
@@ -2875,7 +4040,7 @@
       <c r="A123">
         <v>2025</v>
       </c>
-      <c r="B123" s="20"/>
+      <c r="B123" s="26"/>
       <c r="C123" s="1" t="s">
         <v>134</v>
       </c>
@@ -2887,7 +4052,7 @@
       <c r="A124">
         <v>2025</v>
       </c>
-      <c r="B124" s="20"/>
+      <c r="B124" s="26"/>
       <c r="C124" s="3" t="s">
         <v>135</v>
       </c>
@@ -2899,7 +4064,7 @@
       <c r="A125">
         <v>2025</v>
       </c>
-      <c r="B125" s="20"/>
+      <c r="B125" s="26"/>
       <c r="C125" s="3" t="s">
         <v>136</v>
       </c>
@@ -2911,7 +4076,7 @@
       <c r="A126">
         <v>2025</v>
       </c>
-      <c r="B126" s="20"/>
+      <c r="B126" s="26"/>
       <c r="C126" s="3" t="s">
         <v>137</v>
       </c>
@@ -2923,8 +4088,8 @@
       <c r="A127">
         <v>2025</v>
       </c>
-      <c r="B127" s="21"/>
-      <c r="C127" s="32" t="s">
+      <c r="B127" s="34"/>
+      <c r="C127" s="22" t="s">
         <v>138</v>
       </c>
       <c r="D127" s="16" t="s">
@@ -2935,10 +4100,10 @@
       <c r="A128">
         <v>2025</v>
       </c>
-      <c r="B128" s="19" t="s">
+      <c r="B128" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C128" s="33" t="s">
+      <c r="C128" s="23" t="s">
         <v>139</v>
       </c>
       <c r="D128" s="14" t="s">
@@ -2949,7 +4114,7 @@
       <c r="A129">
         <v>2025</v>
       </c>
-      <c r="B129" s="20"/>
+      <c r="B129" s="26"/>
       <c r="C129" s="8" t="s">
         <v>140</v>
       </c>
@@ -2961,7 +4126,7 @@
       <c r="A130">
         <v>2025</v>
       </c>
-      <c r="B130" s="20"/>
+      <c r="B130" s="26"/>
       <c r="C130" s="1" t="s">
         <v>141</v>
       </c>
@@ -2973,7 +4138,7 @@
       <c r="A131">
         <v>2025</v>
       </c>
-      <c r="B131" s="20"/>
+      <c r="B131" s="26"/>
       <c r="C131" s="3" t="s">
         <v>142</v>
       </c>
@@ -2985,7 +4150,7 @@
       <c r="A132">
         <v>2025</v>
       </c>
-      <c r="B132" s="20"/>
+      <c r="B132" s="26"/>
       <c r="C132" s="3" t="s">
         <v>143</v>
       </c>
@@ -2997,7 +4162,7 @@
       <c r="A133">
         <v>2025</v>
       </c>
-      <c r="B133" s="20"/>
+      <c r="B133" s="26"/>
       <c r="C133" s="3" t="s">
         <v>144</v>
       </c>
@@ -3009,7 +4174,7 @@
       <c r="A134">
         <v>2025</v>
       </c>
-      <c r="B134" s="20"/>
+      <c r="B134" s="26"/>
       <c r="C134" s="3" t="s">
         <v>145</v>
       </c>
@@ -3021,7 +4186,7 @@
       <c r="A135">
         <v>2025</v>
       </c>
-      <c r="B135" s="20"/>
+      <c r="B135" s="26"/>
       <c r="C135" s="10" t="s">
         <v>146</v>
       </c>
@@ -3033,7 +4198,7 @@
       <c r="A136">
         <v>2025</v>
       </c>
-      <c r="B136" s="20"/>
+      <c r="B136" s="26"/>
       <c r="C136" s="8" t="s">
         <v>147</v>
       </c>
@@ -3045,7 +4210,7 @@
       <c r="A137">
         <v>2025</v>
       </c>
-      <c r="B137" s="20"/>
+      <c r="B137" s="26"/>
       <c r="C137" s="1" t="s">
         <v>148</v>
       </c>
@@ -3057,7 +4222,7 @@
       <c r="A138">
         <v>2025</v>
       </c>
-      <c r="B138" s="20"/>
+      <c r="B138" s="26"/>
       <c r="C138" s="3" t="s">
         <v>149</v>
       </c>
@@ -3069,7 +4234,7 @@
       <c r="A139">
         <v>2025</v>
       </c>
-      <c r="B139" s="20"/>
+      <c r="B139" s="26"/>
       <c r="C139" s="3" t="s">
         <v>150</v>
       </c>
@@ -3081,7 +4246,7 @@
       <c r="A140">
         <v>2025</v>
       </c>
-      <c r="B140" s="20"/>
+      <c r="B140" s="26"/>
       <c r="C140" s="3" t="s">
         <v>151</v>
       </c>
@@ -3093,7 +4258,7 @@
       <c r="A141">
         <v>2025</v>
       </c>
-      <c r="B141" s="20"/>
+      <c r="B141" s="26"/>
       <c r="C141" s="3" t="s">
         <v>152</v>
       </c>
@@ -3105,7 +4270,7 @@
       <c r="A142">
         <v>2025</v>
       </c>
-      <c r="B142" s="20"/>
+      <c r="B142" s="26"/>
       <c r="C142" s="10" t="s">
         <v>153</v>
       </c>
@@ -3117,7 +4282,7 @@
       <c r="A143">
         <v>2025</v>
       </c>
-      <c r="B143" s="20"/>
+      <c r="B143" s="26"/>
       <c r="C143" s="8" t="s">
         <v>154</v>
       </c>
@@ -3129,7 +4294,7 @@
       <c r="A144">
         <v>2025</v>
       </c>
-      <c r="B144" s="20"/>
+      <c r="B144" s="26"/>
       <c r="C144" s="1" t="s">
         <v>155</v>
       </c>
@@ -3141,7 +4306,7 @@
       <c r="A145">
         <v>2025</v>
       </c>
-      <c r="B145" s="20"/>
+      <c r="B145" s="26"/>
       <c r="C145" s="3" t="s">
         <v>156</v>
       </c>
@@ -3153,7 +4318,7 @@
       <c r="A146">
         <v>2025</v>
       </c>
-      <c r="B146" s="20"/>
+      <c r="B146" s="26"/>
       <c r="C146" s="3" t="s">
         <v>157</v>
       </c>
@@ -3165,7 +4330,7 @@
       <c r="A147">
         <v>2025</v>
       </c>
-      <c r="B147" s="20"/>
+      <c r="B147" s="26"/>
       <c r="C147" s="3" t="s">
         <v>158</v>
       </c>
@@ -3177,7 +4342,7 @@
       <c r="A148">
         <v>2025</v>
       </c>
-      <c r="B148" s="20"/>
+      <c r="B148" s="26"/>
       <c r="C148" s="3" t="s">
         <v>159</v>
       </c>
@@ -3189,7 +4354,7 @@
       <c r="A149">
         <v>2025</v>
       </c>
-      <c r="B149" s="20"/>
+      <c r="B149" s="26"/>
       <c r="C149" s="10" t="s">
         <v>160</v>
       </c>
@@ -3201,7 +4366,7 @@
       <c r="A150">
         <v>2025</v>
       </c>
-      <c r="B150" s="20"/>
+      <c r="B150" s="26"/>
       <c r="C150" s="8" t="s">
         <v>161</v>
       </c>
@@ -3213,7 +4378,7 @@
       <c r="A151">
         <v>2025</v>
       </c>
-      <c r="B151" s="20"/>
+      <c r="B151" s="26"/>
       <c r="C151" s="1" t="s">
         <v>162</v>
       </c>
@@ -3225,7 +4390,7 @@
       <c r="A152">
         <v>2025</v>
       </c>
-      <c r="B152" s="20"/>
+      <c r="B152" s="26"/>
       <c r="C152" s="3" t="s">
         <v>163</v>
       </c>
@@ -3237,7 +4402,7 @@
       <c r="A153">
         <v>2025</v>
       </c>
-      <c r="B153" s="20"/>
+      <c r="B153" s="26"/>
       <c r="C153" s="3" t="s">
         <v>164</v>
       </c>
@@ -3249,7 +4414,7 @@
       <c r="A154">
         <v>2025</v>
       </c>
-      <c r="B154" s="20"/>
+      <c r="B154" s="26"/>
       <c r="C154" s="3" t="s">
         <v>165</v>
       </c>
@@ -3261,7 +4426,7 @@
       <c r="A155">
         <v>2025</v>
       </c>
-      <c r="B155" s="20"/>
+      <c r="B155" s="26"/>
       <c r="C155" s="3" t="s">
         <v>166</v>
       </c>
@@ -3273,7 +4438,7 @@
       <c r="A156">
         <v>2025</v>
       </c>
-      <c r="B156" s="20"/>
+      <c r="B156" s="26"/>
       <c r="C156" s="10" t="s">
         <v>167</v>
       </c>
@@ -3285,7 +4450,7 @@
       <c r="A157">
         <v>2025</v>
       </c>
-      <c r="B157" s="21"/>
+      <c r="B157" s="34"/>
       <c r="C157" s="8" t="s">
         <v>168</v>
       </c>
@@ -3297,7 +4462,7 @@
       <c r="A158">
         <v>2025</v>
       </c>
-      <c r="B158" s="19" t="s">
+      <c r="B158" s="25" t="s">
         <v>15</v>
       </c>
       <c r="C158" s="1" t="s">
@@ -3311,7 +4476,7 @@
       <c r="A159">
         <v>2025</v>
       </c>
-      <c r="B159" s="20"/>
+      <c r="B159" s="26"/>
       <c r="C159" s="3" t="s">
         <v>170</v>
       </c>
@@ -3323,7 +4488,7 @@
       <c r="A160">
         <v>2025</v>
       </c>
-      <c r="B160" s="20"/>
+      <c r="B160" s="26"/>
       <c r="C160" s="3" t="s">
         <v>171</v>
       </c>
@@ -3335,7 +4500,7 @@
       <c r="A161">
         <v>2025</v>
       </c>
-      <c r="B161" s="20"/>
+      <c r="B161" s="26"/>
       <c r="C161" s="3" t="s">
         <v>172</v>
       </c>
@@ -3347,7 +4512,7 @@
       <c r="A162">
         <v>2025</v>
       </c>
-      <c r="B162" s="20"/>
+      <c r="B162" s="26"/>
       <c r="C162" s="3" t="s">
         <v>173</v>
       </c>
@@ -3359,7 +4524,7 @@
       <c r="A163">
         <v>2025</v>
       </c>
-      <c r="B163" s="20"/>
+      <c r="B163" s="26"/>
       <c r="C163" s="10" t="s">
         <v>174</v>
       </c>
@@ -3371,7 +4536,7 @@
       <c r="A164">
         <v>2025</v>
       </c>
-      <c r="B164" s="20"/>
+      <c r="B164" s="26"/>
       <c r="C164" s="8" t="s">
         <v>175</v>
       </c>
@@ -3383,8 +4548,8 @@
       <c r="A165">
         <v>2025</v>
       </c>
-      <c r="B165" s="20"/>
-      <c r="C165" s="34" t="s">
+      <c r="B165" s="26"/>
+      <c r="C165" s="24" t="s">
         <v>176</v>
       </c>
       <c r="D165" s="2" t="s">
@@ -3395,7 +4560,7 @@
       <c r="A166">
         <v>2025</v>
       </c>
-      <c r="B166" s="20"/>
+      <c r="B166" s="26"/>
       <c r="C166" s="3" t="s">
         <v>177</v>
       </c>
@@ -3407,7 +4572,7 @@
       <c r="A167">
         <v>2025</v>
       </c>
-      <c r="B167" s="20"/>
+      <c r="B167" s="26"/>
       <c r="C167" s="3" t="s">
         <v>178</v>
       </c>
@@ -3419,7 +4584,7 @@
       <c r="A168">
         <v>2025</v>
       </c>
-      <c r="B168" s="20"/>
+      <c r="B168" s="26"/>
       <c r="C168" s="3" t="s">
         <v>179</v>
       </c>
@@ -3431,7 +4596,7 @@
       <c r="A169">
         <v>2025</v>
       </c>
-      <c r="B169" s="20"/>
+      <c r="B169" s="26"/>
       <c r="C169" s="3" t="s">
         <v>180</v>
       </c>
@@ -3443,7 +4608,7 @@
       <c r="A170">
         <v>2025</v>
       </c>
-      <c r="B170" s="20"/>
+      <c r="B170" s="26"/>
       <c r="C170" s="10" t="s">
         <v>181</v>
       </c>
@@ -3455,7 +4620,7 @@
       <c r="A171">
         <v>2025</v>
       </c>
-      <c r="B171" s="20"/>
+      <c r="B171" s="26"/>
       <c r="C171" s="8" t="s">
         <v>182</v>
       </c>
@@ -3467,7 +4632,7 @@
       <c r="A172">
         <v>2025</v>
       </c>
-      <c r="B172" s="20"/>
+      <c r="B172" s="26"/>
       <c r="C172" s="1" t="s">
         <v>183</v>
       </c>
@@ -3479,7 +4644,7 @@
       <c r="A173">
         <v>2025</v>
       </c>
-      <c r="B173" s="20"/>
+      <c r="B173" s="26"/>
       <c r="C173" s="3" t="s">
         <v>184</v>
       </c>
@@ -3491,7 +4656,7 @@
       <c r="A174">
         <v>2025</v>
       </c>
-      <c r="B174" s="20"/>
+      <c r="B174" s="26"/>
       <c r="C174" s="3" t="s">
         <v>185</v>
       </c>
@@ -3503,7 +4668,7 @@
       <c r="A175">
         <v>2025</v>
       </c>
-      <c r="B175" s="20"/>
+      <c r="B175" s="26"/>
       <c r="C175" s="3" t="s">
         <v>186</v>
       </c>
@@ -3515,7 +4680,7 @@
       <c r="A176">
         <v>2025</v>
       </c>
-      <c r="B176" s="20"/>
+      <c r="B176" s="26"/>
       <c r="C176" s="3" t="s">
         <v>187</v>
       </c>
@@ -3527,7 +4692,7 @@
       <c r="A177">
         <v>2025</v>
       </c>
-      <c r="B177" s="20"/>
+      <c r="B177" s="26"/>
       <c r="C177" s="10" t="s">
         <v>188</v>
       </c>
@@ -3539,7 +4704,7 @@
       <c r="A178">
         <v>2025</v>
       </c>
-      <c r="B178" s="20"/>
+      <c r="B178" s="26"/>
       <c r="C178" s="8" t="s">
         <v>189</v>
       </c>
@@ -3551,7 +4716,7 @@
       <c r="A179">
         <v>2025</v>
       </c>
-      <c r="B179" s="20"/>
+      <c r="B179" s="26"/>
       <c r="C179" s="1" t="s">
         <v>190</v>
       </c>
@@ -3563,7 +4728,7 @@
       <c r="A180">
         <v>2025</v>
       </c>
-      <c r="B180" s="20"/>
+      <c r="B180" s="26"/>
       <c r="C180" s="3" t="s">
         <v>191</v>
       </c>
@@ -3575,7 +4740,7 @@
       <c r="A181">
         <v>2025</v>
       </c>
-      <c r="B181" s="20"/>
+      <c r="B181" s="26"/>
       <c r="C181" s="3" t="s">
         <v>192</v>
       </c>
@@ -3587,8 +4752,8 @@
       <c r="A182">
         <v>2025</v>
       </c>
-      <c r="B182" s="20"/>
-      <c r="C182" s="30" t="s">
+      <c r="B182" s="26"/>
+      <c r="C182" s="20" t="s">
         <v>193</v>
       </c>
       <c r="D182" s="4" t="s">
@@ -3599,7 +4764,7 @@
       <c r="A183">
         <v>2025</v>
       </c>
-      <c r="B183" s="20"/>
+      <c r="B183" s="26"/>
       <c r="C183" s="3" t="s">
         <v>194</v>
       </c>
@@ -3611,7 +4776,7 @@
       <c r="A184">
         <v>2025</v>
       </c>
-      <c r="B184" s="20"/>
+      <c r="B184" s="26"/>
       <c r="C184" s="10" t="s">
         <v>195</v>
       </c>
@@ -3623,7 +4788,7 @@
       <c r="A185">
         <v>2025</v>
       </c>
-      <c r="B185" s="20"/>
+      <c r="B185" s="26"/>
       <c r="C185" s="8" t="s">
         <v>196</v>
       </c>
@@ -3635,7 +4800,7 @@
       <c r="A186">
         <v>2025</v>
       </c>
-      <c r="B186" s="20"/>
+      <c r="B186" s="26"/>
       <c r="C186" s="1" t="s">
         <v>197</v>
       </c>
@@ -3647,7 +4812,7 @@
       <c r="A187">
         <v>2025</v>
       </c>
-      <c r="B187" s="20"/>
+      <c r="B187" s="26"/>
       <c r="C187" s="3" t="s">
         <v>198</v>
       </c>
@@ -3655,20 +4820,4436 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>2025</v>
       </c>
-      <c r="B188" s="20"/>
-      <c r="C188" s="31" t="s">
+      <c r="B188" s="26"/>
+      <c r="C188" s="21" t="s">
         <v>199</v>
       </c>
       <c r="D188" s="4" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>2026</v>
+      </c>
+      <c r="B189" s="25" t="s">
+        <v>565</v>
+      </c>
+      <c r="C189" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>2026</v>
+      </c>
+      <c r="B190" s="26"/>
+      <c r="C190" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>2026</v>
+      </c>
+      <c r="B191" s="26"/>
+      <c r="C191" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D191" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>2026</v>
+      </c>
+      <c r="B192" s="26"/>
+      <c r="C192" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D192" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>2026</v>
+      </c>
+      <c r="B193" s="26"/>
+      <c r="C193" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>2026</v>
+      </c>
+      <c r="B194" s="26"/>
+      <c r="C194" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>2026</v>
+      </c>
+      <c r="B195" s="26"/>
+      <c r="C195" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>2026</v>
+      </c>
+      <c r="B196" s="26"/>
+      <c r="C196" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>2026</v>
+      </c>
+      <c r="B197" s="26"/>
+      <c r="C197" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>2026</v>
+      </c>
+      <c r="B198" s="26"/>
+      <c r="C198" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D198" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>2026</v>
+      </c>
+      <c r="B199" s="26"/>
+      <c r="C199" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D199" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>2026</v>
+      </c>
+      <c r="B200" s="26"/>
+      <c r="C200" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>2026</v>
+      </c>
+      <c r="B201" s="26"/>
+      <c r="C201" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>2026</v>
+      </c>
+      <c r="B202" s="26"/>
+      <c r="C202" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>2026</v>
+      </c>
+      <c r="B203" s="26"/>
+      <c r="C203" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>2026</v>
+      </c>
+      <c r="B204" s="26"/>
+      <c r="C204" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>2026</v>
+      </c>
+      <c r="B205" s="26"/>
+      <c r="C205" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D205" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>2026</v>
+      </c>
+      <c r="B206" s="26"/>
+      <c r="C206" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D206" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>2026</v>
+      </c>
+      <c r="B207" s="26"/>
+      <c r="C207" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>2026</v>
+      </c>
+      <c r="B208" s="26"/>
+      <c r="C208" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>2026</v>
+      </c>
+      <c r="B209" s="26"/>
+      <c r="C209" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D209" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>2026</v>
+      </c>
+      <c r="B210" s="26"/>
+      <c r="C210" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D210" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>2026</v>
+      </c>
+      <c r="B211" s="26"/>
+      <c r="C211" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>2026</v>
+      </c>
+      <c r="B212" s="26"/>
+      <c r="C212" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D212" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>2026</v>
+      </c>
+      <c r="B213" s="26"/>
+      <c r="C213" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D213" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>2026</v>
+      </c>
+      <c r="B214" s="26"/>
+      <c r="C214" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>2026</v>
+      </c>
+      <c r="B215" s="26"/>
+      <c r="C215" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D215" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>2026</v>
+      </c>
+      <c r="B216" s="26"/>
+      <c r="C216" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D216" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>2026</v>
+      </c>
+      <c r="B217" s="26"/>
+      <c r="C217" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D217" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>2026</v>
+      </c>
+      <c r="B218" s="26"/>
+      <c r="C218" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D218" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>2026</v>
+      </c>
+      <c r="B219" s="34"/>
+      <c r="C219" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D219" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>2026</v>
+      </c>
+      <c r="B220" s="25" t="s">
+        <v>566</v>
+      </c>
+      <c r="C220" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D220" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>2026</v>
+      </c>
+      <c r="B221" s="26"/>
+      <c r="C221" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D221" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>2026</v>
+      </c>
+      <c r="B222" s="26"/>
+      <c r="C222" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>2026</v>
+      </c>
+      <c r="B223" s="26"/>
+      <c r="C223" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>2026</v>
+      </c>
+      <c r="B224" s="26"/>
+      <c r="C224" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D224" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>2026</v>
+      </c>
+      <c r="B225" s="26"/>
+      <c r="C225" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>2026</v>
+      </c>
+      <c r="B226" s="26"/>
+      <c r="C226" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="D226" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>2026</v>
+      </c>
+      <c r="B227" s="26"/>
+      <c r="C227" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D227" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>2026</v>
+      </c>
+      <c r="B228" s="26"/>
+      <c r="C228" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>2026</v>
+      </c>
+      <c r="B229" s="26"/>
+      <c r="C229" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D229" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>2026</v>
+      </c>
+      <c r="B230" s="26"/>
+      <c r="C230" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D230" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>2026</v>
+      </c>
+      <c r="B231" s="26"/>
+      <c r="C231" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D231" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>2026</v>
+      </c>
+      <c r="B232" s="26"/>
+      <c r="C232" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D232" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>2026</v>
+      </c>
+      <c r="B233" s="26"/>
+      <c r="C233" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D233" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>2026</v>
+      </c>
+      <c r="B234" s="26"/>
+      <c r="C234" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D234" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>2026</v>
+      </c>
+      <c r="B235" s="26"/>
+      <c r="C235" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>2026</v>
+      </c>
+      <c r="B236" s="26"/>
+      <c r="C236" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D236" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>2026</v>
+      </c>
+      <c r="B237" s="26"/>
+      <c r="C237" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D237" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>2026</v>
+      </c>
+      <c r="B238" s="26"/>
+      <c r="C238" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D238" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>2026</v>
+      </c>
+      <c r="B239" s="26"/>
+      <c r="C239" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D239" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>2026</v>
+      </c>
+      <c r="B240" s="26"/>
+      <c r="C240" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D240" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>2026</v>
+      </c>
+      <c r="B241" s="26"/>
+      <c r="C241" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D241" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>2026</v>
+      </c>
+      <c r="B242" s="26"/>
+      <c r="C242" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D242" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>2026</v>
+      </c>
+      <c r="B243" s="26"/>
+      <c r="C243" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D243" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>2026</v>
+      </c>
+      <c r="B244" s="26"/>
+      <c r="C244" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D244" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>2026</v>
+      </c>
+      <c r="B245" s="26"/>
+      <c r="C245" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D245" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>2026</v>
+      </c>
+      <c r="B246" s="26"/>
+      <c r="C246" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D246" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>2026</v>
+      </c>
+      <c r="B247" s="34"/>
+      <c r="C247" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="D247" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>2026</v>
+      </c>
+      <c r="B248" s="25" t="s">
+        <v>567</v>
+      </c>
+      <c r="C248" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="D248" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>2026</v>
+      </c>
+      <c r="B249" s="26"/>
+      <c r="C249" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>2026</v>
+      </c>
+      <c r="B250" s="26"/>
+      <c r="C250" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D250" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>2026</v>
+      </c>
+      <c r="B251" s="26"/>
+      <c r="C251" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D251" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>2026</v>
+      </c>
+      <c r="B252" s="26"/>
+      <c r="C252" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D252" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>2026</v>
+      </c>
+      <c r="B253" s="26"/>
+      <c r="C253" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D253" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>2026</v>
+      </c>
+      <c r="B254" s="26"/>
+      <c r="C254" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="D254" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>2026</v>
+      </c>
+      <c r="B255" s="26"/>
+      <c r="C255" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D255" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>2026</v>
+      </c>
+      <c r="B256" s="26"/>
+      <c r="C256" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>2026</v>
+      </c>
+      <c r="B257" s="26"/>
+      <c r="C257" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D257" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>2026</v>
+      </c>
+      <c r="B258" s="26"/>
+      <c r="C258" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D258" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>2026</v>
+      </c>
+      <c r="B259" s="26"/>
+      <c r="C259" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D259" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>2026</v>
+      </c>
+      <c r="B260" s="26"/>
+      <c r="C260" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D260" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>2026</v>
+      </c>
+      <c r="B261" s="26"/>
+      <c r="C261" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="D261" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>2026</v>
+      </c>
+      <c r="B262" s="26"/>
+      <c r="C262" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D262" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>2026</v>
+      </c>
+      <c r="B263" s="26"/>
+      <c r="C263" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>2026</v>
+      </c>
+      <c r="B264" s="26"/>
+      <c r="C264" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D264" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>2026</v>
+      </c>
+      <c r="B265" s="26"/>
+      <c r="C265" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D265" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>2026</v>
+      </c>
+      <c r="B266" s="26"/>
+      <c r="C266" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D266" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>2026</v>
+      </c>
+      <c r="B267" s="26"/>
+      <c r="C267" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D267" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>2026</v>
+      </c>
+      <c r="B268" s="26"/>
+      <c r="C268" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="D268" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>2026</v>
+      </c>
+      <c r="B269" s="26"/>
+      <c r="C269" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="D269" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>2026</v>
+      </c>
+      <c r="B270" s="26"/>
+      <c r="C270" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>2026</v>
+      </c>
+      <c r="B271" s="26"/>
+      <c r="C271" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D271" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>2026</v>
+      </c>
+      <c r="B272" s="26"/>
+      <c r="C272" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D272" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>2026</v>
+      </c>
+      <c r="B273" s="26"/>
+      <c r="C273" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D273" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>2026</v>
+      </c>
+      <c r="B274" s="26"/>
+      <c r="C274" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D274" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>2026</v>
+      </c>
+      <c r="B275" s="26"/>
+      <c r="C275" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="D275" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>2026</v>
+      </c>
+      <c r="B276" s="26"/>
+      <c r="C276" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="D276" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>2026</v>
+      </c>
+      <c r="B277" s="26"/>
+      <c r="C277" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>2026</v>
+      </c>
+      <c r="B278" s="34"/>
+      <c r="C278" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="D278" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>2026</v>
+      </c>
+      <c r="B279" s="25" t="s">
+        <v>568</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D279" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>2026</v>
+      </c>
+      <c r="B280" s="26"/>
+      <c r="C280" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D280" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>2026</v>
+      </c>
+      <c r="B281" s="26"/>
+      <c r="C281" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D281" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>2026</v>
+      </c>
+      <c r="B282" s="26"/>
+      <c r="C282" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="D282" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>2026</v>
+      </c>
+      <c r="B283" s="26"/>
+      <c r="C283" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="D283" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>2026</v>
+      </c>
+      <c r="B284" s="26"/>
+      <c r="C284" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>2026</v>
+      </c>
+      <c r="B285" s="26"/>
+      <c r="C285" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D285" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>2026</v>
+      </c>
+      <c r="B286" s="26"/>
+      <c r="C286" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D286" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>2026</v>
+      </c>
+      <c r="B287" s="26"/>
+      <c r="C287" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D287" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>2026</v>
+      </c>
+      <c r="B288" s="26"/>
+      <c r="C288" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D288" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>2026</v>
+      </c>
+      <c r="B289" s="26"/>
+      <c r="C289" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="D289" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>2026</v>
+      </c>
+      <c r="B290" s="26"/>
+      <c r="C290" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="D290" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>2026</v>
+      </c>
+      <c r="B291" s="26"/>
+      <c r="C291" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D291" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>2026</v>
+      </c>
+      <c r="B292" s="26"/>
+      <c r="C292" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D292" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>2026</v>
+      </c>
+      <c r="B293" s="26"/>
+      <c r="C293" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D293" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>2026</v>
+      </c>
+      <c r="B294" s="26"/>
+      <c r="C294" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D294" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>2026</v>
+      </c>
+      <c r="B295" s="26"/>
+      <c r="C295" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D295" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>2026</v>
+      </c>
+      <c r="B296" s="26"/>
+      <c r="C296" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="D296" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>2026</v>
+      </c>
+      <c r="B297" s="26"/>
+      <c r="C297" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D297" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>2026</v>
+      </c>
+      <c r="B298" s="26"/>
+      <c r="C298" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>2026</v>
+      </c>
+      <c r="B299" s="26"/>
+      <c r="C299" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D299" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>2026</v>
+      </c>
+      <c r="B300" s="26"/>
+      <c r="C300" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D300" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>2026</v>
+      </c>
+      <c r="B301" s="26"/>
+      <c r="C301" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D301" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>2026</v>
+      </c>
+      <c r="B302" s="26"/>
+      <c r="C302" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D302" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>2026</v>
+      </c>
+      <c r="B303" s="26"/>
+      <c r="C303" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="D303" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>2026</v>
+      </c>
+      <c r="B304" s="26"/>
+      <c r="C304" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="D304" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>2026</v>
+      </c>
+      <c r="B305" s="26"/>
+      <c r="C305" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>2026</v>
+      </c>
+      <c r="B306" s="26"/>
+      <c r="C306" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D306" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>2026</v>
+      </c>
+      <c r="B307" s="26"/>
+      <c r="C307" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D307" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>2026</v>
+      </c>
+      <c r="B308" s="34"/>
+      <c r="C308" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="D308" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>2026</v>
+      </c>
+      <c r="B309" s="25" t="s">
+        <v>569</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D309" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>2026</v>
+      </c>
+      <c r="B310" s="26"/>
+      <c r="C310" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="D310" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>2026</v>
+      </c>
+      <c r="B311" s="26"/>
+      <c r="C311" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="D311" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>2026</v>
+      </c>
+      <c r="B312" s="26"/>
+      <c r="C312" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D312" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>2026</v>
+      </c>
+      <c r="B313" s="26"/>
+      <c r="C313" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D313" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>2026</v>
+      </c>
+      <c r="B314" s="26"/>
+      <c r="C314" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D314" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>2026</v>
+      </c>
+      <c r="B315" s="26"/>
+      <c r="C315" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D315" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>2026</v>
+      </c>
+      <c r="B316" s="26"/>
+      <c r="C316" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D316" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>2026</v>
+      </c>
+      <c r="B317" s="26"/>
+      <c r="C317" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="D317" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>2026</v>
+      </c>
+      <c r="B318" s="26"/>
+      <c r="C318" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="D318" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>2026</v>
+      </c>
+      <c r="B319" s="26"/>
+      <c r="C319" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>2026</v>
+      </c>
+      <c r="B320" s="26"/>
+      <c r="C320" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D320" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>2026</v>
+      </c>
+      <c r="B321" s="26"/>
+      <c r="C321" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D321" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>2026</v>
+      </c>
+      <c r="B322" s="26"/>
+      <c r="C322" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D322" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>2026</v>
+      </c>
+      <c r="B323" s="26"/>
+      <c r="C323" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D323" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>2026</v>
+      </c>
+      <c r="B324" s="26"/>
+      <c r="C324" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="D324" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>2026</v>
+      </c>
+      <c r="B325" s="26"/>
+      <c r="C325" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="D325" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>2026</v>
+      </c>
+      <c r="B326" s="26"/>
+      <c r="C326" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>2026</v>
+      </c>
+      <c r="B327" s="26"/>
+      <c r="C327" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D327" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>2026</v>
+      </c>
+      <c r="B328" s="26"/>
+      <c r="C328" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D328" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>2026</v>
+      </c>
+      <c r="B329" s="26"/>
+      <c r="C329" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D329" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>2026</v>
+      </c>
+      <c r="B330" s="26"/>
+      <c r="C330" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D330" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>2026</v>
+      </c>
+      <c r="B331" s="26"/>
+      <c r="C331" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="D331" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>2026</v>
+      </c>
+      <c r="B332" s="26"/>
+      <c r="C332" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="D332" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>2026</v>
+      </c>
+      <c r="B333" s="26"/>
+      <c r="C333" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>2026</v>
+      </c>
+      <c r="B334" s="26"/>
+      <c r="C334" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D334" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>2026</v>
+      </c>
+      <c r="B335" s="26"/>
+      <c r="C335" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D335" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>2026</v>
+      </c>
+      <c r="B336" s="26"/>
+      <c r="C336" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="D336" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>2026</v>
+      </c>
+      <c r="B337" s="26"/>
+      <c r="C337" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="D337" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>2026</v>
+      </c>
+      <c r="B338" s="26"/>
+      <c r="C338" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="D338" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>2026</v>
+      </c>
+      <c r="B339" s="34"/>
+      <c r="C339" s="37" t="s">
+        <v>350</v>
+      </c>
+      <c r="D339" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>2026</v>
+      </c>
+      <c r="B340" s="25" t="s">
+        <v>570</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>2026</v>
+      </c>
+      <c r="B341" s="26"/>
+      <c r="C341" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D341" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>2026</v>
+      </c>
+      <c r="B342" s="26"/>
+      <c r="C342" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D342" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>2026</v>
+      </c>
+      <c r="B343" s="26"/>
+      <c r="C343" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D343" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>2026</v>
+      </c>
+      <c r="B344" s="26"/>
+      <c r="C344" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D344" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>2026</v>
+      </c>
+      <c r="B345" s="26"/>
+      <c r="C345" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="D345" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>2026</v>
+      </c>
+      <c r="B346" s="26"/>
+      <c r="C346" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D346" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>2026</v>
+      </c>
+      <c r="B347" s="26"/>
+      <c r="C347" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D347" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>2026</v>
+      </c>
+      <c r="B348" s="26"/>
+      <c r="C348" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="D348" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>2026</v>
+      </c>
+      <c r="B349" s="26"/>
+      <c r="C349" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D349" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>2026</v>
+      </c>
+      <c r="B350" s="26"/>
+      <c r="C350" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="D350" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>2026</v>
+      </c>
+      <c r="B351" s="26"/>
+      <c r="C351" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D351" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>2026</v>
+      </c>
+      <c r="B352" s="26"/>
+      <c r="C352" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="D352" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>2026</v>
+      </c>
+      <c r="B353" s="26"/>
+      <c r="C353" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="D353" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>2026</v>
+      </c>
+      <c r="B354" s="26"/>
+      <c r="C354" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D354" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>2026</v>
+      </c>
+      <c r="B355" s="26"/>
+      <c r="C355" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D355" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>2026</v>
+      </c>
+      <c r="B356" s="26"/>
+      <c r="C356" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D356" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>2026</v>
+      </c>
+      <c r="B357" s="26"/>
+      <c r="C357" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D357" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>2026</v>
+      </c>
+      <c r="B358" s="26"/>
+      <c r="C358" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="D358" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>2026</v>
+      </c>
+      <c r="B359" s="26"/>
+      <c r="C359" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="D359" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>2026</v>
+      </c>
+      <c r="B360" s="26"/>
+      <c r="C360" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="D360" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>2026</v>
+      </c>
+      <c r="B361" s="26"/>
+      <c r="C361" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D361" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>2026</v>
+      </c>
+      <c r="B362" s="26"/>
+      <c r="C362" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D362" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>2026</v>
+      </c>
+      <c r="B363" s="26"/>
+      <c r="C363" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D363" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>2026</v>
+      </c>
+      <c r="B364" s="26"/>
+      <c r="C364" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D364" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>2026</v>
+      </c>
+      <c r="B365" s="26"/>
+      <c r="C365" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D365" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>2026</v>
+      </c>
+      <c r="B366" s="26"/>
+      <c r="C366" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="D366" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>2026</v>
+      </c>
+      <c r="B367" s="26"/>
+      <c r="C367" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="D367" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>2026</v>
+      </c>
+      <c r="B368" s="26"/>
+      <c r="C368" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D368" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>2026</v>
+      </c>
+      <c r="B369" s="34"/>
+      <c r="C369" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="D369" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>2026</v>
+      </c>
+      <c r="B370" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D370" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>2026</v>
+      </c>
+      <c r="B371" s="26"/>
+      <c r="C371" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D371" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>2026</v>
+      </c>
+      <c r="B372" s="26"/>
+      <c r="C372" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D372" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>2026</v>
+      </c>
+      <c r="B373" s="26"/>
+      <c r="C373" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="D373" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>2026</v>
+      </c>
+      <c r="B374" s="26"/>
+      <c r="C374" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="D374" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>2026</v>
+      </c>
+      <c r="B375" s="26"/>
+      <c r="C375" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D375" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>2026</v>
+      </c>
+      <c r="B376" s="26"/>
+      <c r="C376" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D376" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>2026</v>
+      </c>
+      <c r="B377" s="26"/>
+      <c r="C377" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D377" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>2026</v>
+      </c>
+      <c r="B378" s="26"/>
+      <c r="C378" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D378" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>2026</v>
+      </c>
+      <c r="B379" s="26"/>
+      <c r="C379" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D379" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>2026</v>
+      </c>
+      <c r="B380" s="26"/>
+      <c r="C380" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="D380" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>2026</v>
+      </c>
+      <c r="B381" s="26"/>
+      <c r="C381" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="D381" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>2026</v>
+      </c>
+      <c r="B382" s="26"/>
+      <c r="C382" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D382" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>2026</v>
+      </c>
+      <c r="B383" s="26"/>
+      <c r="C383" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D383" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>2026</v>
+      </c>
+      <c r="B384" s="26"/>
+      <c r="C384" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D384" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>2026</v>
+      </c>
+      <c r="B385" s="26"/>
+      <c r="C385" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D385" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>2026</v>
+      </c>
+      <c r="B386" s="26"/>
+      <c r="C386" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D386" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>2026</v>
+      </c>
+      <c r="B387" s="26"/>
+      <c r="C387" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="D387" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>2026</v>
+      </c>
+      <c r="B388" s="26"/>
+      <c r="C388" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="D388" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>2026</v>
+      </c>
+      <c r="B389" s="26"/>
+      <c r="C389" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D389" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>2026</v>
+      </c>
+      <c r="B390" s="26"/>
+      <c r="C390" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D390" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>2026</v>
+      </c>
+      <c r="B391" s="26"/>
+      <c r="C391" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D391" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>2026</v>
+      </c>
+      <c r="B392" s="26"/>
+      <c r="C392" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D392" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>2026</v>
+      </c>
+      <c r="B393" s="26"/>
+      <c r="C393" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D393" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>2026</v>
+      </c>
+      <c r="B394" s="26"/>
+      <c r="C394" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="D394" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A395">
+        <v>2026</v>
+      </c>
+      <c r="B395" s="26"/>
+      <c r="C395" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="D395" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>2026</v>
+      </c>
+      <c r="B396" s="26"/>
+      <c r="C396" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D396" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>2026</v>
+      </c>
+      <c r="B397" s="26"/>
+      <c r="C397" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D397" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>2026</v>
+      </c>
+      <c r="B398" s="26"/>
+      <c r="C398" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D398" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>2026</v>
+      </c>
+      <c r="B399" s="26"/>
+      <c r="C399" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D399" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>2026</v>
+      </c>
+      <c r="B400" s="34"/>
+      <c r="C400" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="D400" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>2026</v>
+      </c>
+      <c r="B401" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C401" s="38" t="s">
+        <v>412</v>
+      </c>
+      <c r="D401" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A402">
+        <v>2026</v>
+      </c>
+      <c r="B402" s="26"/>
+      <c r="C402" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="D402" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>2026</v>
+      </c>
+      <c r="B403" s="26"/>
+      <c r="C403" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D403" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>2026</v>
+      </c>
+      <c r="B404" s="26"/>
+      <c r="C404" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="D404" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>2026</v>
+      </c>
+      <c r="B405" s="26"/>
+      <c r="C405" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D405" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>2026</v>
+      </c>
+      <c r="B406" s="26"/>
+      <c r="C406" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D406" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>2026</v>
+      </c>
+      <c r="B407" s="26"/>
+      <c r="C407" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D407" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>2026</v>
+      </c>
+      <c r="B408" s="26"/>
+      <c r="C408" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="D408" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A409">
+        <v>2026</v>
+      </c>
+      <c r="B409" s="26"/>
+      <c r="C409" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="D409" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>2026</v>
+      </c>
+      <c r="B410" s="26"/>
+      <c r="C410" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D410" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>2026</v>
+      </c>
+      <c r="B411" s="26"/>
+      <c r="C411" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D411" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>2026</v>
+      </c>
+      <c r="B412" s="26"/>
+      <c r="C412" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="D412" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>2026</v>
+      </c>
+      <c r="B413" s="26"/>
+      <c r="C413" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D413" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>2026</v>
+      </c>
+      <c r="B414" s="26"/>
+      <c r="C414" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D414" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>2026</v>
+      </c>
+      <c r="B415" s="26"/>
+      <c r="C415" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="D415" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A416">
+        <v>2026</v>
+      </c>
+      <c r="B416" s="26"/>
+      <c r="C416" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="D416" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>2026</v>
+      </c>
+      <c r="B417" s="26"/>
+      <c r="C417" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D417" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>2026</v>
+      </c>
+      <c r="B418" s="26"/>
+      <c r="C418" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D418" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>2026</v>
+      </c>
+      <c r="B419" s="26"/>
+      <c r="C419" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="D419" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>2026</v>
+      </c>
+      <c r="B420" s="26"/>
+      <c r="C420" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="D420" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>2026</v>
+      </c>
+      <c r="B421" s="26"/>
+      <c r="C421" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="D421" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>2026</v>
+      </c>
+      <c r="B422" s="26"/>
+      <c r="C422" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="D422" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A423">
+        <v>2026</v>
+      </c>
+      <c r="B423" s="26"/>
+      <c r="C423" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="D423" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>2026</v>
+      </c>
+      <c r="B424" s="26"/>
+      <c r="C424" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D424" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>2026</v>
+      </c>
+      <c r="B425" s="26"/>
+      <c r="C425" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="D425" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>2026</v>
+      </c>
+      <c r="B426" s="26"/>
+      <c r="C426" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="D426" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>2026</v>
+      </c>
+      <c r="B427" s="26"/>
+      <c r="C427" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D427" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>2026</v>
+      </c>
+      <c r="B428" s="26"/>
+      <c r="C428" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D428" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>2026</v>
+      </c>
+      <c r="B429" s="26"/>
+      <c r="C429" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="D429" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A430">
+        <v>2026</v>
+      </c>
+      <c r="B430" s="26"/>
+      <c r="C430" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="D430" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A431">
+        <v>2026</v>
+      </c>
+      <c r="B431" s="34"/>
+      <c r="C431" s="39" t="s">
+        <v>442</v>
+      </c>
+      <c r="D431" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>2026</v>
+      </c>
+      <c r="B432" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D432" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>2026</v>
+      </c>
+      <c r="B433" s="26"/>
+      <c r="C433" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D433" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>2026</v>
+      </c>
+      <c r="B434" s="26"/>
+      <c r="C434" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="D434" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>2026</v>
+      </c>
+      <c r="B435" s="26"/>
+      <c r="C435" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D435" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>2026</v>
+      </c>
+      <c r="B436" s="26"/>
+      <c r="C436" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="D436" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A437">
+        <v>2026</v>
+      </c>
+      <c r="B437" s="26"/>
+      <c r="C437" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="D437" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>2026</v>
+      </c>
+      <c r="B438" s="26"/>
+      <c r="C438" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D438" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>2026</v>
+      </c>
+      <c r="B439" s="26"/>
+      <c r="C439" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="D439" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>2026</v>
+      </c>
+      <c r="B440" s="26"/>
+      <c r="C440" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="D440" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>2026</v>
+      </c>
+      <c r="B441" s="26"/>
+      <c r="C441" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D441" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>2026</v>
+      </c>
+      <c r="B442" s="26"/>
+      <c r="C442" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="D442" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>2026</v>
+      </c>
+      <c r="B443" s="26"/>
+      <c r="C443" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="D443" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A444">
+        <v>2026</v>
+      </c>
+      <c r="B444" s="26"/>
+      <c r="C444" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="D444" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>2026</v>
+      </c>
+      <c r="B445" s="26"/>
+      <c r="C445" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D445" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>2026</v>
+      </c>
+      <c r="B446" s="26"/>
+      <c r="C446" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="D446" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>2026</v>
+      </c>
+      <c r="B447" s="26"/>
+      <c r="C447" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="D447" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>2026</v>
+      </c>
+      <c r="B448" s="26"/>
+      <c r="C448" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="D448" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>2026</v>
+      </c>
+      <c r="B449" s="26"/>
+      <c r="C449" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="D449" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>2026</v>
+      </c>
+      <c r="B450" s="26"/>
+      <c r="C450" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="D450" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A451">
+        <v>2026</v>
+      </c>
+      <c r="B451" s="26"/>
+      <c r="C451" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="D451" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>2026</v>
+      </c>
+      <c r="B452" s="26"/>
+      <c r="C452" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D452" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>2026</v>
+      </c>
+      <c r="B453" s="26"/>
+      <c r="C453" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="D453" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>2026</v>
+      </c>
+      <c r="B454" s="26"/>
+      <c r="C454" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="D454" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>2026</v>
+      </c>
+      <c r="B455" s="26"/>
+      <c r="C455" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="D455" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>2026</v>
+      </c>
+      <c r="B456" s="26"/>
+      <c r="C456" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="D456" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>2026</v>
+      </c>
+      <c r="B457" s="26"/>
+      <c r="C457" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="D457" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A458">
+        <v>2026</v>
+      </c>
+      <c r="B458" s="26"/>
+      <c r="C458" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="D458" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>2026</v>
+      </c>
+      <c r="B459" s="26"/>
+      <c r="C459" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D459" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>2026</v>
+      </c>
+      <c r="B460" s="26"/>
+      <c r="C460" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="D460" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A461">
+        <v>2026</v>
+      </c>
+      <c r="B461" s="34"/>
+      <c r="C461" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="D461" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>2026</v>
+      </c>
+      <c r="B462" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D462" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>2026</v>
+      </c>
+      <c r="B463" s="26"/>
+      <c r="C463" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="D463" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>2026</v>
+      </c>
+      <c r="B464" s="26"/>
+      <c r="C464" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="D464" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A465">
+        <v>2026</v>
+      </c>
+      <c r="B465" s="26"/>
+      <c r="C465" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="D465" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>2026</v>
+      </c>
+      <c r="B466" s="26"/>
+      <c r="C466" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D466" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>2026</v>
+      </c>
+      <c r="B467" s="26"/>
+      <c r="C467" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D467" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>2026</v>
+      </c>
+      <c r="B468" s="26"/>
+      <c r="C468" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="D468" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>2026</v>
+      </c>
+      <c r="B469" s="26"/>
+      <c r="C469" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="D469" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>2026</v>
+      </c>
+      <c r="B470" s="26"/>
+      <c r="C470" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="D470" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>2026</v>
+      </c>
+      <c r="B471" s="26"/>
+      <c r="C471" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="D471" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A472">
+        <v>2026</v>
+      </c>
+      <c r="B472" s="26"/>
+      <c r="C472" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="D472" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>2026</v>
+      </c>
+      <c r="B473" s="26"/>
+      <c r="C473" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D473" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>2026</v>
+      </c>
+      <c r="B474" s="26"/>
+      <c r="C474" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="D474" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>2026</v>
+      </c>
+      <c r="B475" s="26"/>
+      <c r="C475" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="D475" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>2026</v>
+      </c>
+      <c r="B476" s="26"/>
+      <c r="C476" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="D476" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>2026</v>
+      </c>
+      <c r="B477" s="26"/>
+      <c r="C477" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="D477" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>2026</v>
+      </c>
+      <c r="B478" s="26"/>
+      <c r="C478" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="D478" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A479">
+        <v>2026</v>
+      </c>
+      <c r="B479" s="26"/>
+      <c r="C479" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="D479" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>2026</v>
+      </c>
+      <c r="B480" s="26"/>
+      <c r="C480" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D480" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>2026</v>
+      </c>
+      <c r="B481" s="26"/>
+      <c r="C481" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="D481" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>2026</v>
+      </c>
+      <c r="B482" s="26"/>
+      <c r="C482" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="D482" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>2026</v>
+      </c>
+      <c r="B483" s="26"/>
+      <c r="C483" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="D483" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>2026</v>
+      </c>
+      <c r="B484" s="26"/>
+      <c r="C484" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="D484" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>2026</v>
+      </c>
+      <c r="B485" s="26"/>
+      <c r="C485" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="D485" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A486">
+        <v>2026</v>
+      </c>
+      <c r="B486" s="26"/>
+      <c r="C486" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="D486" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>2026</v>
+      </c>
+      <c r="B487" s="26"/>
+      <c r="C487" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D487" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>2026</v>
+      </c>
+      <c r="B488" s="26"/>
+      <c r="C488" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="D488" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>2026</v>
+      </c>
+      <c r="B489" s="26"/>
+      <c r="C489" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="D489" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>2026</v>
+      </c>
+      <c r="B490" s="26"/>
+      <c r="C490" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="D490" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>2026</v>
+      </c>
+      <c r="B491" s="26"/>
+      <c r="C491" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="D491" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A492">
+        <v>2026</v>
+      </c>
+      <c r="B492" s="34"/>
+      <c r="C492" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="D492" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A493">
+        <v>2026</v>
+      </c>
+      <c r="B493" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C493" s="36" t="s">
+        <v>504</v>
+      </c>
+      <c r="D493" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <v>2026</v>
+      </c>
+      <c r="B494" s="26"/>
+      <c r="C494" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D494" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <v>2026</v>
+      </c>
+      <c r="B495" s="26"/>
+      <c r="C495" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="D495" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <v>2026</v>
+      </c>
+      <c r="B496" s="26"/>
+      <c r="C496" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="D496" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>2026</v>
+      </c>
+      <c r="B497" s="26"/>
+      <c r="C497" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="D497" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>2026</v>
+      </c>
+      <c r="B498" s="26"/>
+      <c r="C498" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="D498" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>2026</v>
+      </c>
+      <c r="B499" s="26"/>
+      <c r="C499" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="D499" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A500">
+        <v>2026</v>
+      </c>
+      <c r="B500" s="26"/>
+      <c r="C500" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="D500" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A501">
+        <v>2026</v>
+      </c>
+      <c r="B501" s="26"/>
+      <c r="C501" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D501" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A502">
+        <v>2026</v>
+      </c>
+      <c r="B502" s="26"/>
+      <c r="C502" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D502" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A503">
+        <v>2026</v>
+      </c>
+      <c r="B503" s="26"/>
+      <c r="C503" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="D503" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A504">
+        <v>2026</v>
+      </c>
+      <c r="B504" s="26"/>
+      <c r="C504" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="D504" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A505">
+        <v>2026</v>
+      </c>
+      <c r="B505" s="26"/>
+      <c r="C505" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="D505" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A506">
+        <v>2026</v>
+      </c>
+      <c r="B506" s="26"/>
+      <c r="C506" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="D506" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A507">
+        <v>2026</v>
+      </c>
+      <c r="B507" s="26"/>
+      <c r="C507" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="D507" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A508">
+        <v>2026</v>
+      </c>
+      <c r="B508" s="26"/>
+      <c r="C508" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D508" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A509">
+        <v>2026</v>
+      </c>
+      <c r="B509" s="26"/>
+      <c r="C509" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D509" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A510">
+        <v>2026</v>
+      </c>
+      <c r="B510" s="26"/>
+      <c r="C510" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="D510" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A511">
+        <v>2026</v>
+      </c>
+      <c r="B511" s="26"/>
+      <c r="C511" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="D511" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A512">
+        <v>2026</v>
+      </c>
+      <c r="B512" s="26"/>
+      <c r="C512" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="D512" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A513">
+        <v>2026</v>
+      </c>
+      <c r="B513" s="26"/>
+      <c r="C513" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="D513" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A514">
+        <v>2026</v>
+      </c>
+      <c r="B514" s="26"/>
+      <c r="C514" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="D514" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A515">
+        <v>2026</v>
+      </c>
+      <c r="B515" s="26"/>
+      <c r="C515" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D515" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A516">
+        <v>2026</v>
+      </c>
+      <c r="B516" s="26"/>
+      <c r="C516" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="D516" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A517">
+        <v>2026</v>
+      </c>
+      <c r="B517" s="26"/>
+      <c r="C517" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="D517" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A518">
+        <v>2026</v>
+      </c>
+      <c r="B518" s="26"/>
+      <c r="C518" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="D518" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A519">
+        <v>2026</v>
+      </c>
+      <c r="B519" s="26"/>
+      <c r="C519" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="D519" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A520">
+        <v>2026</v>
+      </c>
+      <c r="B520" s="26"/>
+      <c r="C520" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="D520" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A521">
+        <v>2026</v>
+      </c>
+      <c r="B521" s="26"/>
+      <c r="C521" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="D521" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A522">
+        <v>2026</v>
+      </c>
+      <c r="B522" s="34"/>
+      <c r="C522" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="D522" s="41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A523">
+        <v>2026</v>
+      </c>
+      <c r="B523" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C523" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D523" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A524">
+        <v>2026</v>
+      </c>
+      <c r="B524" s="26"/>
+      <c r="C524" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="D524" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A525">
+        <v>2026</v>
+      </c>
+      <c r="B525" s="26"/>
+      <c r="C525" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="D525" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A526">
+        <v>2026</v>
+      </c>
+      <c r="B526" s="26"/>
+      <c r="C526" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="D526" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A527">
+        <v>2026</v>
+      </c>
+      <c r="B527" s="26"/>
+      <c r="C527" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="D527" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A528">
+        <v>2026</v>
+      </c>
+      <c r="B528" s="26"/>
+      <c r="C528" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="D528" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A529">
+        <v>2026</v>
+      </c>
+      <c r="B529" s="26"/>
+      <c r="C529" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D529" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A530">
+        <v>2026</v>
+      </c>
+      <c r="B530" s="26"/>
+      <c r="C530" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="D530" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A531">
+        <v>2026</v>
+      </c>
+      <c r="B531" s="26"/>
+      <c r="C531" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="D531" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A532">
+        <v>2026</v>
+      </c>
+      <c r="B532" s="26"/>
+      <c r="C532" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="D532" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A533">
+        <v>2026</v>
+      </c>
+      <c r="B533" s="26"/>
+      <c r="C533" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="D533" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A534">
+        <v>2026</v>
+      </c>
+      <c r="B534" s="26"/>
+      <c r="C534" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="D534" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A535">
+        <v>2026</v>
+      </c>
+      <c r="B535" s="26"/>
+      <c r="C535" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="D535" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A536">
+        <v>2026</v>
+      </c>
+      <c r="B536" s="26"/>
+      <c r="C536" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D536" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A537">
+        <v>2026</v>
+      </c>
+      <c r="B537" s="26"/>
+      <c r="C537" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="D537" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A538">
+        <v>2026</v>
+      </c>
+      <c r="B538" s="26"/>
+      <c r="C538" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="D538" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A539">
+        <v>2026</v>
+      </c>
+      <c r="B539" s="26"/>
+      <c r="C539" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="D539" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A540">
+        <v>2026</v>
+      </c>
+      <c r="B540" s="26"/>
+      <c r="C540" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="D540" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A541">
+        <v>2026</v>
+      </c>
+      <c r="B541" s="26"/>
+      <c r="C541" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="D541" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A542">
+        <v>2026</v>
+      </c>
+      <c r="B542" s="26"/>
+      <c r="C542" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="D542" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A543">
+        <v>2026</v>
+      </c>
+      <c r="B543" s="26"/>
+      <c r="C543" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D543" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A544">
+        <v>2026</v>
+      </c>
+      <c r="B544" s="26"/>
+      <c r="C544" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="D544" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A545">
+        <v>2026</v>
+      </c>
+      <c r="B545" s="26"/>
+      <c r="C545" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="D545" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A546">
+        <v>2026</v>
+      </c>
+      <c r="B546" s="26"/>
+      <c r="C546" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="D546" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A547">
+        <v>2026</v>
+      </c>
+      <c r="B547" s="26"/>
+      <c r="C547" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D547" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A548">
+        <v>2026</v>
+      </c>
+      <c r="B548" s="26"/>
+      <c r="C548" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="D548" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A549">
+        <v>2026</v>
+      </c>
+      <c r="B549" s="26"/>
+      <c r="C549" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="D549" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A550">
+        <v>2026</v>
+      </c>
+      <c r="B550" s="26"/>
+      <c r="C550" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="D550" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A551">
+        <v>2026</v>
+      </c>
+      <c r="B551" s="26"/>
+      <c r="C551" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="D551" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A552">
+        <v>2026</v>
+      </c>
+      <c r="B552" s="26"/>
+      <c r="C552" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="D552" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A553">
+        <v>2026</v>
+      </c>
+      <c r="B553" s="26"/>
+      <c r="C553" s="13" t="s">
+        <v>564</v>
+      </c>
+      <c r="D553" s="42" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="22">
+    <mergeCell ref="B189:B219"/>
+    <mergeCell ref="B220:B247"/>
+    <mergeCell ref="B248:B278"/>
+    <mergeCell ref="B279:B308"/>
+    <mergeCell ref="B309:B339"/>
+    <mergeCell ref="B340:B369"/>
+    <mergeCell ref="B370:B400"/>
+    <mergeCell ref="B401:B431"/>
+    <mergeCell ref="B432:B461"/>
+    <mergeCell ref="B462:B492"/>
+    <mergeCell ref="B493:B522"/>
+    <mergeCell ref="B523:B553"/>
     <mergeCell ref="B158:B188"/>
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="A1:A4"/>
